--- a/BIO247Project/BIO247ProjectArticles/PMC4724864_Data.xlsx
+++ b/BIO247Project/BIO247ProjectArticles/PMC4724864_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectArticles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DED6C04-F84A-41FE-890F-16B27D7FEB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9DED6C04-F84A-41FE-890F-16B27D7FEB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E831408-5784-411E-98DA-EB6BC00B63BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$Z$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="113">
   <si>
     <t>SNP</t>
   </si>
@@ -137,13 +126,7 @@
     <t>rs1324495</t>
   </si>
   <si>
-    <t>rs2690121</t>
-  </si>
-  <si>
     <t>CG</t>
-  </si>
-  <si>
-    <t>GC</t>
   </si>
   <si>
     <t>rs6900224</t>
@@ -386,10 +369,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -442,13 +425,13 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -463,10 +446,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -809,14 +792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA1" sqref="AA1:AA65536"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,36 +832,36 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E1" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1" s="19"/>
       <c r="G1" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M1" s="20"/>
       <c r="N1" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
       <c r="V1" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
@@ -898,70 +881,70 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1041,7 +1024,7 @@
         <v>0.196325</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1121,7 +1104,7 @@
         <v>0.18834000000000001</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1201,7 +1184,7 @@
         <v>6.9315000000000002E-4</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1281,7 +1264,7 @@
         <v>0.40546500000000002</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1361,7 +1344,7 @@
         <v>0.114875</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1441,7 +1424,7 @@
         <v>4.9619000000000003E-2</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1521,7 +1504,7 @@
         <v>8.2104999999999997E-2</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1601,7 +1584,7 @@
         <v>0.36126000000000003</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1681,7 +1664,7 @@
         <v>0.39396500000000001</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1729,7 +1712,7 @@
         <v>22</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -1809,7 +1792,7 @@
         <v>7.8049999999999994E-2</v>
       </c>
       <c r="Z13" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -1889,7 +1872,7 @@
         <v>0.25636500000000001</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -1969,7 +1952,7 @@
         <v>0.32396000000000003</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -2049,7 +2032,7 @@
         <v>0.38241000000000003</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2129,7 +2112,7 @@
         <v>0.51908500000000002</v>
       </c>
       <c r="Z17" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2209,7 +2192,7 @@
         <v>0.37578</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2289,7 +2272,7 @@
         <v>0.19578000000000001</v>
       </c>
       <c r="Z19" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2369,7 +2352,7 @@
         <v>0.76650499999999999</v>
       </c>
       <c r="Z20" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2449,7 +2432,7 @@
         <v>0.64014499999999996</v>
       </c>
       <c r="Z21" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -2529,1972 +2512,2004 @@
         <v>0.85673500000000002</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4">
         <v>6</v>
       </c>
       <c r="C23" s="4">
-        <v>25363256</v>
+        <v>25545965</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E23" s="7">
-        <v>1.1345586566825505</v>
+        <v>1.1035999999999999</v>
       </c>
       <c r="F23" s="4">
-        <v>7.3349999999999994E-5</v>
+        <v>8.4450000000000006E-5</v>
       </c>
       <c r="G23" s="7">
-        <v>0.93283582089552231</v>
+        <v>1.0903</v>
       </c>
       <c r="H23" s="1">
-        <v>0.77845837955243002</v>
+        <v>0.102119930172705</v>
       </c>
       <c r="I23" s="7">
-        <v>1.1104783098849917</v>
+        <v>1.1020006657086001</v>
       </c>
       <c r="J23">
-        <v>3.00070998948028E-2</v>
+        <v>2.3551086344489498E-2</v>
       </c>
       <c r="K23" s="10">
-        <v>4.7905712378226701E-4</v>
-      </c>
-      <c r="O23"/>
-      <c r="Q23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>22</v>
+        <v>3.7216798295824902E-5</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1.1051</v>
+      </c>
+      <c r="M23" s="9">
+        <v>2.0329999999999998E-6</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1.117194</v>
+      </c>
+      <c r="O23">
+        <v>4.6731399999999999E-2</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1.7743700000000001E-2</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>8.8718500000000006E-3</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="S23" s="4">
+        <v>4.734E-2</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0.11118</v>
+      </c>
+      <c r="U23" s="4">
+        <v>5.5590000000000001E-2</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1.036</v>
+      </c>
+      <c r="W23" s="4">
+        <v>4.8559999999999999E-2</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0.46078999999999998</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0.23039499999999999</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="4">
         <v>6</v>
       </c>
       <c r="C24" s="4">
-        <v>25545965</v>
+        <v>25815150</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24" s="7">
-        <v>1.1035999999999999</v>
+        <v>1.1154999999999999</v>
       </c>
       <c r="F24" s="4">
-        <v>8.4450000000000006E-5</v>
+        <v>3.0199999999999998E-7</v>
       </c>
       <c r="G24" s="7">
-        <v>1.0903</v>
+        <v>1.02843739282066</v>
       </c>
       <c r="H24" s="1">
-        <v>0.102119930172705</v>
+        <v>0.17332080285201301</v>
       </c>
       <c r="I24" s="7">
-        <v>1.1020006657086001</v>
+        <v>1.08525883158749</v>
       </c>
       <c r="J24">
-        <v>2.3551086344489498E-2</v>
+        <v>1.73275644083494E-2</v>
       </c>
       <c r="K24" s="10">
-        <v>3.7216798295824902E-5</v>
+        <v>2.33685610973033E-6</v>
       </c>
       <c r="L24" s="14">
-        <v>1.1051</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="M24" s="9">
-        <v>2.0329999999999998E-6</v>
+        <v>2.293E-7</v>
       </c>
       <c r="N24" s="4">
-        <v>1.117194</v>
+        <v>1.0901559999999999</v>
       </c>
       <c r="O24">
-        <v>4.6731399999999999E-2</v>
+        <v>4.0768600000000002E-2</v>
       </c>
       <c r="P24" s="4">
-        <v>1.7743700000000001E-2</v>
+        <v>3.4266699999999997E-2</v>
       </c>
       <c r="Q24" s="4">
-        <v>8.8718500000000006E-3</v>
+        <v>1.7133349999999999E-2</v>
       </c>
       <c r="R24" s="4">
-        <v>1.0780000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="S24" s="4">
-        <v>4.734E-2</v>
+        <v>4.1635999999999999E-2</v>
       </c>
       <c r="T24" s="4">
-        <v>0.11118</v>
+        <v>6.4225000000000004E-2</v>
       </c>
       <c r="U24" s="4">
-        <v>5.5590000000000001E-2</v>
+        <v>3.2112500000000002E-2</v>
       </c>
       <c r="V24" s="4">
-        <v>1.036</v>
+        <v>1.01</v>
       </c>
       <c r="W24" s="4">
-        <v>4.8559999999999999E-2</v>
+        <v>4.2169999999999999E-2</v>
       </c>
       <c r="X24" s="4">
-        <v>0.46078999999999998</v>
+        <v>0.80986000000000002</v>
       </c>
       <c r="Y24" s="4">
-        <v>0.23039499999999999</v>
+        <v>0.40493000000000001</v>
       </c>
       <c r="Z24" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="4">
         <v>6</v>
       </c>
       <c r="C25" s="4">
-        <v>25815150</v>
+        <v>26484811</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7">
-        <v>1.1154999999999999</v>
+        <v>1.1081000000000001</v>
       </c>
       <c r="F25" s="4">
-        <v>3.0199999999999998E-7</v>
+        <v>6.635E-6</v>
       </c>
       <c r="G25" s="7">
-        <v>1.02843739282066</v>
+        <v>1.0143942063057101</v>
       </c>
       <c r="H25" s="1">
-        <v>0.17332080285201301</v>
+        <v>0.37647470701739999</v>
       </c>
       <c r="I25" s="7">
-        <v>1.08525883158749</v>
+        <v>1.0885589959280699</v>
       </c>
       <c r="J25">
-        <v>1.73275644083494E-2</v>
+        <v>2.0375479389359599E-2</v>
       </c>
       <c r="K25" s="10">
-        <v>2.33685610973033E-6</v>
+        <v>3.1196075960249203E-5</v>
       </c>
       <c r="L25" s="14">
-        <v>1.0860000000000001</v>
+        <v>1.0982000000000001</v>
       </c>
       <c r="M25" s="9">
-        <v>2.293E-7</v>
+        <v>4.1020000000000001E-7</v>
       </c>
       <c r="N25" s="4">
-        <v>1.0901559999999999</v>
+        <v>1.1446890000000001</v>
       </c>
       <c r="O25">
-        <v>4.0768600000000002E-2</v>
+        <v>4.4141600000000003E-2</v>
       </c>
       <c r="P25" s="4">
-        <v>3.4266699999999997E-2</v>
+        <v>2.2076000000000001E-3</v>
       </c>
       <c r="Q25" s="4">
-        <v>1.7133349999999999E-2</v>
+        <v>1.1038000000000001E-3</v>
       </c>
       <c r="R25" s="4">
-        <v>1.08</v>
+        <v>1.056</v>
       </c>
       <c r="S25" s="4">
-        <v>4.1635999999999999E-2</v>
+        <v>4.4692000000000003E-2</v>
       </c>
       <c r="T25" s="4">
-        <v>6.4225000000000004E-2</v>
+        <v>0.22202</v>
       </c>
       <c r="U25" s="4">
-        <v>3.2112500000000002E-2</v>
+        <v>0.11101</v>
       </c>
       <c r="V25" s="4">
-        <v>1.01</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="W25" s="4">
-        <v>4.2169999999999999E-2</v>
+        <v>4.5333999999999999E-2</v>
       </c>
       <c r="X25" s="4">
-        <v>0.80986000000000002</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="Y25" s="4">
-        <v>0.40493000000000001</v>
+        <v>3.7705000000000002E-2</v>
       </c>
       <c r="Z25" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4">
         <v>6</v>
       </c>
       <c r="C26" s="4">
-        <v>26484811</v>
+        <v>27364081</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E26" s="7">
-        <v>1.1081000000000001</v>
+        <v>1.1436999999999999</v>
       </c>
       <c r="F26" s="4">
-        <v>6.635E-6</v>
+        <v>1.5720000000000001E-8</v>
       </c>
       <c r="G26" s="7">
-        <v>1.0143942063057101</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.37647470701739999</v>
+        <v>1.0926688321362099</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1.5799079886768101E-2</v>
       </c>
       <c r="I26" s="7">
-        <v>1.0885589959280699</v>
+        <v>1.1308079222453999</v>
       </c>
       <c r="J26">
-        <v>2.0375479389359599E-2</v>
+        <v>2.05473006902668E-2</v>
       </c>
       <c r="K26" s="10">
-        <v>3.1196075960249203E-5</v>
+        <v>2.1920543158415702E-9</v>
       </c>
       <c r="L26" s="14">
-        <v>1.0982000000000001</v>
+        <v>1.1393</v>
       </c>
       <c r="M26" s="9">
-        <v>4.1020000000000001E-7</v>
+        <v>2.957E-12</v>
       </c>
       <c r="N26" s="4">
-        <v>1.1446890000000001</v>
+        <v>1.180498</v>
       </c>
       <c r="O26">
-        <v>4.4141600000000003E-2</v>
+        <v>4.4862199999999998E-2</v>
       </c>
       <c r="P26" s="4">
-        <v>2.2076000000000001E-3</v>
+        <v>2.1800000000000001E-4</v>
       </c>
       <c r="Q26" s="4">
-        <v>1.1038000000000001E-3</v>
+        <v>1.0900000000000001E-4</v>
       </c>
       <c r="R26" s="4">
-        <v>1.056</v>
+        <v>1.137</v>
       </c>
       <c r="S26" s="4">
-        <v>4.4692000000000003E-2</v>
+        <v>4.5748999999999998E-2</v>
       </c>
       <c r="T26" s="4">
-        <v>0.22202</v>
+        <v>5.0509999999999999E-3</v>
       </c>
       <c r="U26" s="4">
-        <v>0.11101</v>
+        <v>2.5255E-3</v>
       </c>
       <c r="V26" s="4">
-        <v>1.0840000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="W26" s="4">
-        <v>4.5333999999999999E-2</v>
+        <v>4.6754999999999998E-2</v>
       </c>
       <c r="X26" s="4">
-        <v>7.5410000000000005E-2</v>
+        <v>0.39690999999999999</v>
       </c>
       <c r="Y26" s="4">
-        <v>3.7705000000000002E-2</v>
+        <v>0.19845499999999999</v>
       </c>
       <c r="Z26" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4">
         <v>6</v>
       </c>
       <c r="C27" s="4">
-        <v>27364081</v>
+        <v>27818144</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="7">
-        <v>1.1436999999999999</v>
+        <v>1.2530000000000001</v>
       </c>
       <c r="F27" s="4">
-        <v>1.5720000000000001E-8</v>
+        <v>1.5619999999999999E-10</v>
       </c>
       <c r="G27" s="7">
-        <v>1.0926688321362099</v>
+        <v>1.11647334390229</v>
       </c>
       <c r="H27" s="9">
-        <v>1.5799079886768101E-2</v>
+        <v>3.9984911345846098E-3</v>
       </c>
       <c r="I27" s="7">
-        <v>1.1308079222453999</v>
+        <v>1.1940198752610001</v>
       </c>
       <c r="J27">
-        <v>2.05473006902668E-2</v>
+        <v>2.6855275564336499E-2</v>
       </c>
       <c r="K27" s="10">
-        <v>2.1920543158415702E-9</v>
+        <v>4.0289105385227198E-11</v>
       </c>
       <c r="L27" s="14">
-        <v>1.1393</v>
+        <v>1.2008000000000001</v>
       </c>
       <c r="M27" s="9">
-        <v>2.957E-12</v>
+        <v>1.2990000000000001E-13</v>
       </c>
       <c r="N27" s="4">
-        <v>1.180498</v>
+        <v>1.2385440000000001</v>
       </c>
       <c r="O27">
-        <v>4.4862199999999998E-2</v>
+        <v>6.2980400000000006E-2</v>
       </c>
       <c r="P27" s="4">
-        <v>2.1800000000000001E-4</v>
+        <v>6.8280000000000001E-4</v>
       </c>
       <c r="Q27" s="4">
-        <v>1.0900000000000001E-4</v>
+        <v>3.414E-4</v>
       </c>
       <c r="R27" s="4">
-        <v>1.137</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="S27" s="4">
-        <v>4.5748999999999998E-2</v>
+        <v>6.2894000000000005E-2</v>
       </c>
       <c r="T27" s="4">
-        <v>5.0509999999999999E-3</v>
+        <v>0.13614999999999999</v>
       </c>
       <c r="U27" s="4">
-        <v>2.5255E-3</v>
+        <v>6.8074999999999997E-2</v>
       </c>
       <c r="V27" s="4">
-        <v>1.04</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="W27" s="4">
-        <v>4.6754999999999998E-2</v>
+        <v>6.6071000000000005E-2</v>
       </c>
       <c r="X27" s="4">
-        <v>0.39690999999999999</v>
+        <v>6.1339999999999999E-2</v>
       </c>
       <c r="Y27" s="4">
-        <v>0.19845499999999999</v>
+        <v>3.0669999999999999E-2</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="4">
         <v>6</v>
       </c>
       <c r="C28" s="4">
-        <v>27818144</v>
+        <v>28503485</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E28" s="7">
-        <v>1.2530000000000001</v>
+        <v>1.1380448389666553</v>
       </c>
       <c r="F28" s="4">
-        <v>1.5619999999999999E-10</v>
+        <v>2.707E-8</v>
       </c>
       <c r="G28" s="7">
-        <v>1.11647334390229</v>
-      </c>
-      <c r="H28" s="9">
-        <v>3.9984911345846098E-3</v>
+        <v>1.0275434722258154</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.18572196726086901</v>
       </c>
       <c r="I28" s="7">
-        <v>1.1940198752610001</v>
+        <v>1.0958326899244959</v>
       </c>
       <c r="J28">
-        <v>2.6855275564336499E-2</v>
+        <v>1.84930640202326E-2</v>
       </c>
       <c r="K28" s="10">
-        <v>4.0289105385227198E-11</v>
+        <v>7.4754476742100493E-7</v>
       </c>
       <c r="L28" s="14">
-        <v>1.2008000000000001</v>
+        <v>1.0934999999999999</v>
       </c>
       <c r="M28" s="9">
-        <v>1.2990000000000001E-13</v>
+        <v>1.296E-7</v>
       </c>
       <c r="N28" s="4">
-        <v>1.2385440000000001</v>
+        <v>1.0814319999999999</v>
       </c>
       <c r="O28">
-        <v>6.2980400000000006E-2</v>
+        <v>4.2042599999999999E-2</v>
       </c>
       <c r="P28" s="4">
-        <v>6.8280000000000001E-4</v>
+        <v>6.2668199999999993E-2</v>
       </c>
       <c r="Q28" s="4">
-        <v>3.414E-4</v>
+        <v>3.1334099999999997E-2</v>
       </c>
       <c r="R28" s="4">
-        <v>1.0980000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="S28" s="4">
-        <v>6.2894000000000005E-2</v>
+        <v>4.2651000000000001E-2</v>
       </c>
       <c r="T28" s="4">
-        <v>0.13614999999999999</v>
+        <v>0.36076999999999998</v>
       </c>
       <c r="U28" s="4">
-        <v>6.8074999999999997E-2</v>
+        <v>0.18038499999999999</v>
       </c>
       <c r="V28" s="4">
-        <v>1.1319999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="W28" s="4">
-        <v>6.6071000000000005E-2</v>
+        <v>4.3373000000000002E-2</v>
       </c>
       <c r="X28" s="4">
-        <v>6.1339999999999999E-2</v>
+        <v>0.36247000000000001</v>
       </c>
       <c r="Y28" s="4">
-        <v>3.0669999999999999E-2</v>
+        <v>0.18123500000000001</v>
       </c>
       <c r="Z28" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4">
         <v>6</v>
       </c>
       <c r="C29" s="4">
-        <v>28503485</v>
+        <v>29338662</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="7">
-        <v>1.1380448389666553</v>
+        <v>1.1049723756906078</v>
       </c>
       <c r="F29" s="4">
-        <v>2.707E-8</v>
+        <v>3.202E-6</v>
       </c>
       <c r="G29" s="7">
-        <v>1.0275434722258154</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.18572196726086901</v>
+        <v>1.0675291664535826</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4.2966999536282698E-2</v>
       </c>
       <c r="I29" s="7">
-        <v>1.0958326899244959</v>
+        <v>1.0958576639363529</v>
       </c>
       <c r="J29">
-        <v>1.84930640202326E-2</v>
+        <v>1.8652750254060699E-2</v>
       </c>
       <c r="K29" s="10">
-        <v>7.4754476742100493E-7</v>
+        <v>9.2271389839915198E-7</v>
       </c>
       <c r="L29" s="14">
-        <v>1.0934999999999999</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="M29" s="9">
-        <v>1.296E-7</v>
+        <v>3.5819999999999999E-8</v>
       </c>
       <c r="N29" s="4">
-        <v>1.0814319999999999</v>
+        <v>1.1081559999999999</v>
       </c>
       <c r="O29">
-        <v>4.2042599999999999E-2</v>
+        <v>4.0779000000000003E-2</v>
       </c>
       <c r="P29" s="4">
-        <v>6.2668199999999993E-2</v>
+        <v>1.1758599999999999E-2</v>
       </c>
       <c r="Q29" s="4">
-        <v>3.1334099999999997E-2</v>
+        <v>5.8792999999999996E-3</v>
       </c>
       <c r="R29" s="4">
-        <v>1.04</v>
+        <v>1.034</v>
       </c>
       <c r="S29" s="4">
-        <v>4.2651000000000001E-2</v>
+        <v>4.1530999999999998E-2</v>
       </c>
       <c r="T29" s="4">
-        <v>0.36076999999999998</v>
+        <v>0.42704999999999999</v>
       </c>
       <c r="U29" s="4">
-        <v>0.18038499999999999</v>
+        <v>0.21352499999999999</v>
       </c>
       <c r="V29" s="4">
-        <v>1.04</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="W29" s="4">
-        <v>4.3373000000000002E-2</v>
+        <v>4.2222000000000003E-2</v>
       </c>
       <c r="X29" s="4">
-        <v>0.36247000000000001</v>
+        <v>9.2424000000000006E-2</v>
       </c>
       <c r="Y29" s="4">
-        <v>0.18123500000000001</v>
+        <v>4.6212000000000003E-2</v>
       </c>
       <c r="Z29" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4">
         <v>6</v>
       </c>
       <c r="C30" s="4">
-        <v>29338662</v>
+        <v>29812295</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E30" s="7">
-        <v>1.1049723756906078</v>
+        <v>1.0970927043335161</v>
       </c>
       <c r="F30" s="4">
-        <v>3.202E-6</v>
+        <v>6.5350000000000003E-5</v>
       </c>
       <c r="G30" s="7">
-        <v>1.0675291664535826</v>
-      </c>
-      <c r="H30" s="9">
-        <v>4.2966999536282698E-2</v>
+        <v>1.0725010725010724</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.14093587764590401</v>
       </c>
       <c r="I30" s="7">
-        <v>1.0958576639363529</v>
+        <v>1.0942890791373738</v>
       </c>
       <c r="J30">
-        <v>1.8652750254060699E-2</v>
+        <v>2.18515307718994E-2</v>
       </c>
       <c r="K30" s="10">
-        <v>9.2271389839915198E-7</v>
+        <v>3.7314937509025397E-5</v>
       </c>
       <c r="L30" s="14">
-        <v>1.0980000000000001</v>
+        <v>1.0814999999999999</v>
       </c>
       <c r="M30" s="9">
-        <v>3.5819999999999999E-8</v>
+        <v>6.7189999999999999E-5</v>
       </c>
       <c r="N30" s="4">
-        <v>1.1081559999999999</v>
+        <v>1.028912</v>
       </c>
       <c r="O30">
-        <v>4.0779000000000003E-2</v>
+        <v>4.5008399999999997E-2</v>
       </c>
       <c r="P30" s="4">
-        <v>1.1758599999999999E-2</v>
+        <v>0.52683630000000004</v>
       </c>
       <c r="Q30" s="4">
-        <v>5.8792999999999996E-3</v>
+        <v>0.26341815000000002</v>
       </c>
       <c r="R30" s="4">
-        <v>1.034</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="S30" s="4">
-        <v>4.1530999999999998E-2</v>
+        <v>4.5509000000000001E-2</v>
       </c>
       <c r="T30" s="4">
-        <v>0.42704999999999999</v>
+        <v>0.56228999999999996</v>
       </c>
       <c r="U30" s="4">
-        <v>0.21352499999999999</v>
+        <v>0.71885500000000002</v>
       </c>
       <c r="V30" s="4">
-        <v>1.0740000000000001</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="W30" s="4">
-        <v>4.2222000000000003E-2</v>
+        <v>4.6816999999999998E-2</v>
       </c>
       <c r="X30" s="4">
-        <v>9.2424000000000006E-2</v>
+        <v>0.22832</v>
       </c>
       <c r="Y30" s="4">
-        <v>4.6212000000000003E-2</v>
+        <v>0.11416</v>
       </c>
       <c r="Z30" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4">
         <v>6</v>
       </c>
       <c r="C31" s="4">
-        <v>29812295</v>
+        <v>30282110</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E31" s="7">
-        <v>1.0970927043335161</v>
+        <v>1.1869436201780414</v>
       </c>
       <c r="F31" s="4">
-        <v>6.5350000000000003E-5</v>
+        <v>4.3009999999999995E-11</v>
       </c>
       <c r="G31" s="7">
-        <v>1.0725010725010724</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.14093587764590401</v>
+        <v>1.1043286995353725</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1.54765415145597E-3</v>
       </c>
       <c r="I31" s="7">
-        <v>1.0942890791373738</v>
+        <v>1.1552413300866249</v>
       </c>
       <c r="J31">
-        <v>2.18515307718994E-2</v>
+        <v>2.0550619778561902E-2</v>
       </c>
       <c r="K31" s="10">
-        <v>3.7314937509025397E-5</v>
+        <v>2.1849189124623101E-12</v>
       </c>
       <c r="L31" s="14">
-        <v>1.0814999999999999</v>
+        <v>1.1576</v>
       </c>
       <c r="M31" s="9">
-        <v>6.7189999999999999E-5</v>
+        <v>1.0450000000000001E-14</v>
       </c>
       <c r="N31" s="4">
-        <v>1.028912</v>
+        <v>1.1705490000000001</v>
       </c>
       <c r="O31">
-        <v>4.5008399999999997E-2</v>
+        <v>4.8454499999999998E-2</v>
       </c>
       <c r="P31" s="4">
-        <v>0.52683630000000004</v>
+        <v>1.1586000000000001E-3</v>
       </c>
       <c r="Q31" s="4">
-        <v>0.26341815000000002</v>
+        <v>5.7930000000000004E-4</v>
       </c>
       <c r="R31" s="4">
-        <v>0.97399999999999998</v>
+        <v>1.101</v>
       </c>
       <c r="S31" s="4">
-        <v>4.5509000000000001E-2</v>
+        <v>4.8638000000000001E-2</v>
       </c>
       <c r="T31" s="4">
-        <v>0.56228999999999996</v>
+        <v>4.8188000000000002E-2</v>
       </c>
       <c r="U31" s="4">
-        <v>0.71885500000000002</v>
+        <v>2.4094000000000001E-2</v>
       </c>
       <c r="V31" s="4">
-        <v>1.0580000000000001</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="W31" s="4">
-        <v>4.6816999999999998E-2</v>
+        <v>5.0054000000000001E-2</v>
       </c>
       <c r="X31" s="4">
-        <v>0.22832</v>
+        <v>0.22994999999999999</v>
       </c>
       <c r="Y31" s="4">
-        <v>0.11416</v>
+        <v>0.11497499999999999</v>
       </c>
       <c r="Z31" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4">
         <v>6</v>
       </c>
       <c r="C32" s="4">
-        <v>30282110</v>
+        <v>30579499</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E32" s="7">
-        <v>1.1869436201780414</v>
+        <v>1.1203226529240422</v>
       </c>
       <c r="F32" s="4">
-        <v>4.3009999999999995E-11</v>
+        <v>4.673E-6</v>
       </c>
       <c r="G32" s="7">
-        <v>1.1043286995353725</v>
+        <v>1.1270846674847348</v>
       </c>
       <c r="H32" s="9">
-        <v>1.54765415145597E-3</v>
+        <v>4.7101398917938101E-3</v>
       </c>
       <c r="I32" s="7">
-        <v>1.1552413300866249</v>
+        <v>1.1218380091097264</v>
       </c>
       <c r="J32">
-        <v>2.0550619778561902E-2</v>
+        <v>2.1837775448960799E-2</v>
       </c>
       <c r="K32" s="10">
-        <v>2.1849189124623101E-12</v>
+        <v>1.40450546526338E-7</v>
       </c>
       <c r="L32" s="14">
-        <v>1.1576</v>
+        <v>1.1063000000000001</v>
       </c>
       <c r="M32" s="9">
-        <v>1.0450000000000001E-14</v>
+        <v>3.5170000000000001E-7</v>
       </c>
       <c r="N32" s="4">
-        <v>1.1705490000000001</v>
+        <v>1.036</v>
       </c>
       <c r="O32">
-        <v>4.8454499999999998E-2</v>
+        <v>4.7326600000000003E-2</v>
       </c>
       <c r="P32" s="4">
-        <v>1.1586000000000001E-3</v>
+        <v>0.45157969999999997</v>
       </c>
       <c r="Q32" s="4">
-        <v>5.7930000000000004E-4</v>
+        <v>0.22578984999999999</v>
       </c>
       <c r="R32" s="4">
-        <v>1.101</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="S32" s="4">
-        <v>4.8638000000000001E-2</v>
+        <v>4.8030999999999997E-2</v>
       </c>
       <c r="T32" s="4">
-        <v>4.8188000000000002E-2</v>
+        <v>0.99006000000000005</v>
       </c>
       <c r="U32" s="4">
-        <v>2.4094000000000001E-2</v>
+        <v>0.49503000000000003</v>
       </c>
       <c r="V32" s="4">
-        <v>1.0620000000000001</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="W32" s="4">
-        <v>5.0054000000000001E-2</v>
+        <v>4.8467000000000003E-2</v>
       </c>
       <c r="X32" s="4">
-        <v>0.22994999999999999</v>
+        <v>0.47367999999999999</v>
       </c>
       <c r="Y32" s="4">
-        <v>0.11497499999999999</v>
+        <v>0.23683999999999999</v>
       </c>
       <c r="Z32" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4">
         <v>6</v>
       </c>
       <c r="C33" s="4">
-        <v>30579499</v>
+        <v>30806520</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="7">
-        <v>1.1203226529240422</v>
+        <v>1.1442000000000001</v>
       </c>
       <c r="F33" s="4">
-        <v>4.673E-6</v>
+        <v>8.3860000000000001E-7</v>
       </c>
       <c r="G33" s="7">
-        <v>1.1270846674847348</v>
+        <v>1.0836435467477601</v>
       </c>
       <c r="H33" s="9">
-        <v>4.7101398917938101E-3</v>
+        <v>2.4648170206901601E-2</v>
       </c>
       <c r="I33" s="7">
-        <v>1.1218380091097264</v>
+        <v>1.12515709446134</v>
       </c>
       <c r="J33">
-        <v>2.1837775448960799E-2</v>
+        <v>2.2699354981111301E-2</v>
       </c>
       <c r="K33" s="10">
-        <v>1.40450546526338E-7</v>
+        <v>2.04743290765919E-7</v>
       </c>
       <c r="L33" s="14">
-        <v>1.1063000000000001</v>
+        <v>1.1291</v>
       </c>
       <c r="M33" s="9">
-        <v>3.5170000000000001E-7</v>
+        <v>5.2579999999999998E-9</v>
       </c>
       <c r="N33" s="4">
-        <v>1.036</v>
+        <v>1.1500859999999999</v>
       </c>
       <c r="O33">
-        <v>4.7326600000000003E-2</v>
+        <v>5.1921500000000002E-2</v>
       </c>
       <c r="P33" s="4">
-        <v>0.45157969999999997</v>
+        <v>7.0682000000000002E-3</v>
       </c>
       <c r="Q33" s="4">
-        <v>0.22578984999999999</v>
+        <v>3.5341000000000001E-3</v>
       </c>
       <c r="R33" s="4">
-        <v>1.0009999999999999</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="S33" s="4">
-        <v>4.8030999999999997E-2</v>
+        <v>5.2070999999999999E-2</v>
       </c>
       <c r="T33" s="4">
-        <v>0.99006000000000005</v>
+        <v>4.8119000000000002E-2</v>
       </c>
       <c r="U33" s="4">
-        <v>0.49503000000000003</v>
+        <v>2.4059500000000001E-2</v>
       </c>
       <c r="V33" s="4">
         <v>1.0349999999999999</v>
       </c>
       <c r="W33" s="4">
-        <v>4.8467000000000003E-2</v>
+        <v>5.3539999999999997E-2</v>
       </c>
       <c r="X33" s="4">
-        <v>0.47367999999999999</v>
+        <v>0.51832</v>
       </c>
       <c r="Y33" s="4">
-        <v>0.23683999999999999</v>
+        <v>0.25916</v>
       </c>
       <c r="Z33" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="4">
         <v>6</v>
       </c>
       <c r="C34" s="4">
-        <v>30806520</v>
+        <v>31061084</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="7">
-        <v>1.1442000000000001</v>
+        <v>1.1346000000000001</v>
       </c>
       <c r="F34" s="4">
-        <v>8.3860000000000001E-7</v>
+        <v>2.0440000000000001E-5</v>
       </c>
       <c r="G34" s="7">
-        <v>1.0836435467477601</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2.4648170206901601E-2</v>
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.89376836450139197</v>
       </c>
       <c r="I34" s="7">
-        <v>1.12515709446134</v>
+        <v>1.10299245571636</v>
       </c>
       <c r="J34">
-        <v>2.2699354981111301E-2</v>
+        <v>2.7663496166672099E-2</v>
       </c>
       <c r="K34" s="10">
-        <v>2.04743290765919E-7</v>
+        <v>3.9478284885374699E-4</v>
       </c>
       <c r="L34" s="14">
-        <v>1.1291</v>
-      </c>
-      <c r="M34" s="9">
-        <v>5.2579999999999998E-9</v>
+        <v>1.0851</v>
+      </c>
+      <c r="M34" s="14">
+        <v>9.5220000000000005E-4</v>
       </c>
       <c r="N34" s="4">
-        <v>1.1500859999999999</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="O34">
-        <v>5.1921500000000002E-2</v>
+        <v>5.51274E-2</v>
       </c>
       <c r="P34" s="4">
-        <v>7.0682000000000002E-3</v>
+        <v>0.76305650000000003</v>
       </c>
       <c r="Q34" s="4">
-        <v>3.5341000000000001E-3</v>
+        <v>0.38152825000000001</v>
       </c>
       <c r="R34" s="4">
-        <v>1.1080000000000001</v>
+        <v>1.024</v>
       </c>
       <c r="S34" s="4">
-        <v>5.2070999999999999E-2</v>
+        <v>5.6174000000000002E-2</v>
       </c>
       <c r="T34" s="4">
-        <v>4.8119000000000002E-2</v>
+        <v>0.67271999999999998</v>
       </c>
       <c r="U34" s="4">
-        <v>2.4059500000000001E-2</v>
+        <v>0.33635999999999999</v>
       </c>
       <c r="V34" s="4">
-        <v>1.0349999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="W34" s="4">
-        <v>5.3539999999999997E-2</v>
+        <v>5.6786999999999997E-2</v>
       </c>
       <c r="X34" s="4">
-        <v>0.51832</v>
+        <v>0.90185000000000004</v>
       </c>
       <c r="Y34" s="4">
-        <v>0.25916</v>
+        <v>0.54907499999999998</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4">
         <v>6</v>
       </c>
       <c r="C35" s="4">
-        <v>31061084</v>
+        <v>31213392</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="7">
-        <v>1.1346000000000001</v>
+        <v>1.1042000000000001</v>
       </c>
       <c r="F35" s="4">
-        <v>2.0440000000000001E-5</v>
+        <v>3.185E-6</v>
       </c>
       <c r="G35" s="7">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.89376836450139197</v>
+        <v>1.0932826826722399</v>
+      </c>
+      <c r="H35" s="9">
+        <v>2.6637161351943401E-3</v>
       </c>
       <c r="I35" s="7">
-        <v>1.10299245571636</v>
+        <v>1.1008373600592101</v>
       </c>
       <c r="J35">
-        <v>2.7663496166672099E-2</v>
+        <v>1.77321423028831E-2</v>
       </c>
       <c r="K35" s="10">
-        <v>3.9478284885374699E-4</v>
+        <v>6.0300219928421899E-8</v>
       </c>
       <c r="L35" s="14">
-        <v>1.0851</v>
-      </c>
-      <c r="M35" s="14">
-        <v>9.5220000000000005E-4</v>
+        <v>1.0992</v>
+      </c>
+      <c r="M35" s="9">
+        <v>5.8200000000000002E-9</v>
       </c>
       <c r="N35" s="4">
-        <v>1.0169999999999999</v>
+        <v>1.0906309999999999</v>
       </c>
       <c r="O35">
-        <v>5.51274E-2</v>
+        <v>4.0517999999999998E-2</v>
       </c>
       <c r="P35" s="4">
-        <v>0.76305650000000003</v>
+        <v>3.2244500000000002E-2</v>
       </c>
       <c r="Q35" s="4">
-        <v>0.38152825000000001</v>
+        <v>1.6122250000000001E-2</v>
       </c>
       <c r="R35" s="4">
-        <v>1.024</v>
+        <v>1.048</v>
       </c>
       <c r="S35" s="4">
-        <v>5.6174000000000002E-2</v>
+        <v>4.0724999999999997E-2</v>
       </c>
       <c r="T35" s="4">
-        <v>0.67271999999999998</v>
+        <v>0.25337999999999999</v>
       </c>
       <c r="U35" s="4">
-        <v>0.33635999999999999</v>
+        <v>0.12669</v>
       </c>
       <c r="V35" s="4">
-        <v>0.99299999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="W35" s="4">
-        <v>5.6786999999999997E-2</v>
+        <v>4.1536999999999998E-2</v>
       </c>
       <c r="X35" s="4">
-        <v>0.90185000000000004</v>
+        <v>0.34693000000000002</v>
       </c>
       <c r="Y35" s="4">
-        <v>0.54907499999999998</v>
+        <v>0.17346500000000001</v>
       </c>
       <c r="Z35" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4">
         <v>6</v>
       </c>
       <c r="C36" s="4">
-        <v>31213392</v>
+        <v>31542090</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="7">
-        <v>1.1042000000000001</v>
+        <v>1.1331</v>
       </c>
       <c r="F36" s="4">
-        <v>3.185E-6</v>
+        <v>7.1629999999999999E-6</v>
       </c>
       <c r="G36" s="7">
-        <v>1.0932826826722399</v>
-      </c>
-      <c r="H36" s="9">
-        <v>2.6637161351943401E-3</v>
+        <v>1.0306</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.34358967120734002</v>
       </c>
       <c r="I36" s="7">
-        <v>1.1008373600592101</v>
+        <v>1.1201509341428499</v>
       </c>
       <c r="J36">
-        <v>1.77321423028831E-2</v>
+        <v>2.60605975665253E-2</v>
       </c>
       <c r="K36" s="10">
-        <v>6.0300219928421899E-8</v>
+        <v>1.33778823021569E-5</v>
       </c>
       <c r="L36" s="14">
-        <v>1.0992</v>
+        <v>1.1246</v>
       </c>
       <c r="M36" s="9">
-        <v>5.8200000000000002E-9</v>
+        <v>5.215E-7</v>
       </c>
       <c r="N36" s="4">
-        <v>1.0906309999999999</v>
+        <v>1.1431180000000001</v>
       </c>
       <c r="O36">
-        <v>4.0517999999999998E-2</v>
+        <v>5.3103699999999997E-2</v>
       </c>
       <c r="P36" s="4">
-        <v>3.2244500000000002E-2</v>
+        <v>9.0357000000000007E-3</v>
       </c>
       <c r="Q36" s="4">
-        <v>1.6122250000000001E-2</v>
+        <v>4.5178500000000003E-3</v>
       </c>
       <c r="R36" s="4">
+        <v>1.091</v>
+      </c>
+      <c r="S36" s="4">
+        <v>5.1893000000000002E-2</v>
+      </c>
+      <c r="T36" s="4">
+        <v>9.1905000000000001E-2</v>
+      </c>
+      <c r="U36" s="4">
+        <v>4.59525E-2</v>
+      </c>
+      <c r="V36" s="4">
         <v>1.048</v>
       </c>
-      <c r="S36" s="4">
-        <v>4.0724999999999997E-2</v>
-      </c>
-      <c r="T36" s="4">
-        <v>0.25337999999999999</v>
-      </c>
-      <c r="U36" s="4">
-        <v>0.12669</v>
-      </c>
-      <c r="V36" s="4">
-        <v>1.04</v>
-      </c>
       <c r="W36" s="4">
-        <v>4.1536999999999998E-2</v>
+        <v>5.3280000000000001E-2</v>
       </c>
       <c r="X36" s="4">
-        <v>0.34693000000000002</v>
+        <v>0.37875999999999999</v>
       </c>
       <c r="Y36" s="4">
-        <v>0.17346500000000001</v>
+        <v>0.18937999999999999</v>
       </c>
       <c r="Z36" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4">
         <v>6</v>
       </c>
       <c r="C37" s="4">
-        <v>31542090</v>
+        <v>31837338</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="7">
-        <v>1.1331</v>
+        <v>1.1132</v>
       </c>
       <c r="F37" s="4">
-        <v>7.1629999999999999E-6</v>
+        <v>2.615E-6</v>
       </c>
       <c r="G37" s="7">
-        <v>1.0306</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.34358967120734002</v>
+        <v>1.1412701170314801</v>
+      </c>
+      <c r="H37" s="9">
+        <v>8.7221588390362607E-5</v>
       </c>
       <c r="I37" s="7">
-        <v>1.1201509341428499</v>
+        <v>1.1214216210894901</v>
       </c>
       <c r="J37">
-        <v>2.60605975665253E-2</v>
+        <v>1.9137289686223399E-2</v>
       </c>
       <c r="K37" s="10">
-        <v>1.33778823021569E-5</v>
+        <v>2.1222603674431201E-9</v>
       </c>
       <c r="L37" s="14">
-        <v>1.1246</v>
+        <v>1.1229</v>
       </c>
       <c r="M37" s="9">
-        <v>5.215E-7</v>
+        <v>4.1340000000000003E-11</v>
       </c>
       <c r="N37" s="4">
-        <v>1.1431180000000001</v>
+        <v>1.130582</v>
       </c>
       <c r="O37">
-        <v>5.3103699999999997E-2</v>
+        <v>4.4172900000000001E-2</v>
       </c>
       <c r="P37" s="4">
-        <v>9.0357000000000007E-3</v>
+        <v>5.4507999999999996E-3</v>
       </c>
       <c r="Q37" s="4">
-        <v>4.5178500000000003E-3</v>
+        <v>2.7253999999999998E-3</v>
       </c>
       <c r="R37" s="4">
-        <v>1.091</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="S37" s="4">
-        <v>5.1893000000000002E-2</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="T37" s="4">
-        <v>9.1905000000000001E-2</v>
+        <v>0.46536</v>
       </c>
       <c r="U37" s="4">
-        <v>4.59525E-2</v>
+        <v>0.76732</v>
       </c>
       <c r="V37" s="4">
-        <v>1.048</v>
+        <v>1.165</v>
       </c>
       <c r="W37" s="4">
-        <v>5.3280000000000001E-2</v>
+        <v>4.4949999999999997E-2</v>
       </c>
       <c r="X37" s="4">
-        <v>0.37875999999999999</v>
+        <v>6.6034999999999998E-4</v>
       </c>
       <c r="Y37" s="4">
-        <v>0.18937999999999999</v>
+        <v>3.3017499999999999E-4</v>
       </c>
       <c r="Z37" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4">
         <v>6</v>
       </c>
       <c r="C38" s="4">
-        <v>31837338</v>
+        <v>32269830</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="7">
-        <v>1.1132</v>
+        <v>1.1143302874972143</v>
       </c>
       <c r="F38" s="4">
-        <v>2.615E-6</v>
+        <v>4.087E-5</v>
       </c>
       <c r="G38" s="7">
-        <v>1.1412701170314801</v>
+        <v>1.2192148256522799</v>
       </c>
       <c r="H38" s="9">
-        <v>8.7221588390362607E-5</v>
+        <v>2.2229164955461802E-3</v>
       </c>
       <c r="I38" s="7">
-        <v>1.1214216210894901</v>
+        <v>1.1269851988441351</v>
       </c>
       <c r="J38">
-        <v>1.9137289686223399E-2</v>
+        <v>2.4687355659341201E-2</v>
       </c>
       <c r="K38" s="10">
-        <v>2.1222603674431201E-9</v>
+        <v>1.2827887283517499E-6</v>
       </c>
       <c r="L38" s="14">
-        <v>1.1229</v>
+        <v>1.1553</v>
       </c>
       <c r="M38" s="9">
-        <v>4.1340000000000003E-11</v>
+        <v>6.0790000000000004E-11</v>
       </c>
       <c r="N38" s="4">
-        <v>1.130582</v>
+        <v>1.2756730000000001</v>
       </c>
       <c r="O38">
-        <v>4.4172900000000001E-2</v>
+        <v>4.9289899999999998E-2</v>
       </c>
       <c r="P38" s="4">
-        <v>5.4507999999999996E-3</v>
+        <v>7.85E-7</v>
       </c>
       <c r="Q38" s="4">
-        <v>2.7253999999999998E-3</v>
+        <v>3.925E-7</v>
       </c>
       <c r="R38" s="4">
-        <v>0.96860000000000002</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="S38" s="4">
-        <v>4.3749999999999997E-2</v>
+        <v>4.9412999999999999E-2</v>
       </c>
       <c r="T38" s="4">
-        <v>0.46536</v>
+        <v>1.3502E-3</v>
       </c>
       <c r="U38" s="4">
-        <v>0.76732</v>
+        <v>6.7509999999999998E-4</v>
       </c>
       <c r="V38" s="4">
-        <v>1.165</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="W38" s="4">
-        <v>4.4949999999999997E-2</v>
+        <v>5.1236999999999998E-2</v>
       </c>
       <c r="X38" s="4">
-        <v>6.6034999999999998E-4</v>
+        <v>9.9419999999999994E-2</v>
       </c>
       <c r="Y38" s="4">
-        <v>3.3017499999999999E-4</v>
+        <v>4.9709999999999997E-2</v>
       </c>
       <c r="Z38" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="4">
         <v>6</v>
       </c>
       <c r="C39" s="4">
-        <v>32269830</v>
+        <v>32447625</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E39" s="7">
-        <v>1.1143302874972143</v>
+        <v>1.1436999999999999</v>
       </c>
       <c r="F39" s="4">
-        <v>4.087E-5</v>
+        <v>1.5380000000000002E-5</v>
       </c>
       <c r="G39" s="7">
-        <v>1.2192148256522799</v>
-      </c>
-      <c r="H39" s="9">
-        <v>2.2229164955461802E-3</v>
+        <v>1.048498283252</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.19416883496487899</v>
       </c>
       <c r="I39" s="7">
-        <v>1.1269851988441351</v>
+        <v>1.11980510869866</v>
       </c>
       <c r="J39">
-        <v>2.4687355659341201E-2</v>
+        <v>2.70598346502108E-2</v>
       </c>
       <c r="K39" s="10">
-        <v>1.2827887283517499E-6</v>
+        <v>2.8940581381586801E-5</v>
       </c>
       <c r="L39" s="14">
-        <v>1.1553</v>
+        <v>1.1295999999999999</v>
       </c>
       <c r="M39" s="9">
-        <v>6.0790000000000004E-11</v>
+        <v>2.4550000000000002E-7</v>
       </c>
       <c r="N39" s="4">
-        <v>1.2756730000000001</v>
+        <v>1.161305</v>
       </c>
       <c r="O39">
-        <v>4.9289899999999998E-2</v>
+        <v>4.8308299999999998E-2</v>
       </c>
       <c r="P39" s="4">
-        <v>7.85E-7</v>
+        <v>1.9591000000000001E-3</v>
       </c>
       <c r="Q39" s="4">
-        <v>3.925E-7</v>
+        <v>9.7955000000000004E-4</v>
       </c>
       <c r="R39" s="4">
-        <v>1.1719999999999999</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="S39" s="4">
-        <v>4.9412999999999999E-2</v>
+        <v>4.8156999999999998E-2</v>
       </c>
       <c r="T39" s="4">
-        <v>1.3502E-3</v>
+        <v>0.55112000000000005</v>
       </c>
       <c r="U39" s="4">
-        <v>6.7509999999999998E-4</v>
+        <v>0.27556000000000003</v>
       </c>
       <c r="V39" s="4">
-        <v>1.0880000000000001</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="W39" s="4">
-        <v>5.1236999999999998E-2</v>
+        <v>4.9794999999999999E-2</v>
       </c>
       <c r="X39" s="4">
-        <v>9.9419999999999994E-2</v>
+        <v>1.5247E-2</v>
       </c>
       <c r="Y39" s="4">
-        <v>4.9709999999999997E-2</v>
+        <v>7.6235000000000001E-3</v>
       </c>
       <c r="Z39" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
       </c>
       <c r="C40" s="4">
-        <v>32447625</v>
+        <v>32537697</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E40" s="7">
-        <v>1.1436999999999999</v>
+        <v>1.1357183418512209</v>
       </c>
       <c r="F40" s="4">
-        <v>1.5380000000000002E-5</v>
+        <v>8.636E-8</v>
       </c>
       <c r="G40" s="7">
-        <v>1.048498283252</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.19416883496487899</v>
+        <v>1.0950263129750804</v>
+      </c>
+      <c r="H40" s="9">
+        <v>2.9837954095869299E-3</v>
       </c>
       <c r="I40" s="7">
-        <v>1.11980510869866</v>
+        <v>1.1216361133515322</v>
       </c>
       <c r="J40">
-        <v>2.70598346502108E-2</v>
+        <v>1.9306546110242299E-2</v>
       </c>
       <c r="K40" s="10">
-        <v>2.8940581381586801E-5</v>
+        <v>2.7549531544934801E-9</v>
       </c>
       <c r="L40" s="14">
-        <v>1.1295999999999999</v>
+        <v>1.1197999999999999</v>
       </c>
       <c r="M40" s="9">
-        <v>2.4550000000000002E-7</v>
+        <v>2.678E-10</v>
       </c>
       <c r="N40" s="4">
-        <v>1.161305</v>
+        <v>1.108525</v>
       </c>
       <c r="O40">
-        <v>4.8308299999999998E-2</v>
+        <v>4.8047199999999998E-2</v>
       </c>
       <c r="P40" s="4">
-        <v>1.9591000000000001E-3</v>
+        <v>3.19498E-2</v>
       </c>
       <c r="Q40" s="4">
-        <v>9.7955000000000004E-4</v>
+        <v>1.59749E-2</v>
       </c>
       <c r="R40" s="4">
-        <v>1.0289999999999999</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="S40" s="4">
-        <v>4.8156999999999998E-2</v>
+        <v>4.7863999999999997E-2</v>
       </c>
       <c r="T40" s="4">
-        <v>0.55112000000000005</v>
+        <v>0.81794</v>
       </c>
       <c r="U40" s="4">
-        <v>0.27556000000000003</v>
+        <v>0.40897</v>
       </c>
       <c r="V40" s="4">
-        <v>1.1279999999999999</v>
+        <v>1.097</v>
       </c>
       <c r="W40" s="4">
-        <v>4.9794999999999999E-2</v>
+        <v>4.9565999999999999E-2</v>
       </c>
       <c r="X40" s="4">
-        <v>1.5247E-2</v>
+        <v>6.2573000000000004E-2</v>
       </c>
       <c r="Y40" s="4">
-        <v>7.6235000000000001E-3</v>
+        <v>3.1286500000000002E-2</v>
       </c>
       <c r="Z40" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="4">
         <v>6</v>
       </c>
       <c r="C41" s="4">
-        <v>32537697</v>
+        <v>32707977</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E41" s="7">
-        <v>1.1357183418512209</v>
+        <v>1.1259993244004054</v>
       </c>
       <c r="F41" s="4">
-        <v>8.636E-8</v>
+        <v>1.267E-8</v>
       </c>
       <c r="G41" s="7">
-        <v>1.0950263129750804</v>
-      </c>
-      <c r="H41" s="9">
-        <v>2.9837954095869299E-3</v>
+        <v>1.0064414548854814</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.415959162469553</v>
       </c>
       <c r="I41" s="7">
-        <v>1.1216361133515322</v>
+        <v>1.0861507303115181</v>
       </c>
       <c r="J41">
-        <v>1.9306546110242299E-2</v>
+        <v>1.7139656799201399E-2</v>
       </c>
       <c r="K41" s="10">
-        <v>2.7549531544934801E-9</v>
+        <v>1.4243476771369499E-6</v>
       </c>
       <c r="L41" s="14">
-        <v>1.1197999999999999</v>
+        <v>1.0748</v>
       </c>
       <c r="M41" s="9">
-        <v>2.678E-10</v>
+        <v>4.4329999999999997E-6</v>
       </c>
       <c r="N41" s="4">
-        <v>1.108525</v>
+        <v>1.01688</v>
       </c>
       <c r="O41">
-        <v>4.8047199999999998E-2</v>
+        <v>3.9316999999999998E-2</v>
       </c>
       <c r="P41" s="4">
-        <v>3.19498E-2</v>
+        <v>0.66941329999999999</v>
       </c>
       <c r="Q41" s="4">
-        <v>1.59749E-2</v>
+        <v>0.33470664999999999</v>
       </c>
       <c r="R41" s="4">
-        <v>1.0109999999999999</v>
+        <v>1.016</v>
       </c>
       <c r="S41" s="4">
-        <v>4.7863999999999997E-2</v>
+        <v>4.0464E-2</v>
       </c>
       <c r="T41" s="4">
-        <v>0.81794</v>
+        <v>0.69535000000000002</v>
       </c>
       <c r="U41" s="4">
-        <v>0.40897</v>
+        <v>0.34767500000000001</v>
       </c>
       <c r="V41" s="4">
-        <v>1.097</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="W41" s="4">
-        <v>4.9565999999999999E-2</v>
+        <v>4.0613999999999997E-2</v>
       </c>
       <c r="X41" s="4">
-        <v>6.2573000000000004E-2</v>
+        <v>0.97367999999999999</v>
       </c>
       <c r="Y41" s="4">
-        <v>3.1286500000000002E-2</v>
+        <v>0.48683999999999999</v>
       </c>
       <c r="Z41" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="4">
         <v>6</v>
       </c>
       <c r="C42" s="4">
-        <v>32707977</v>
+        <v>32863268</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E42" s="7">
-        <v>1.1259993244004054</v>
+        <v>1.2135</v>
       </c>
       <c r="F42" s="4">
-        <v>1.267E-8</v>
+        <v>3.3459999999999997E-8</v>
       </c>
       <c r="G42" s="7">
-        <v>1.0064414548854814</v>
+        <v>1.0600716215829999</v>
       </c>
       <c r="H42" s="1">
-        <v>0.415959162469553</v>
+        <v>9.5192645449553998E-2</v>
       </c>
       <c r="I42" s="7">
-        <v>1.0861507303115181</v>
+        <v>1.1524850567377101</v>
       </c>
       <c r="J42">
-        <v>1.7139656799201399E-2</v>
+        <v>2.7522378201427802E-2</v>
       </c>
       <c r="K42" s="10">
-        <v>1.4243476771369499E-6</v>
+        <v>2.5154082328171501E-7</v>
       </c>
       <c r="L42" s="14">
-        <v>1.0748</v>
+        <v>1.1839</v>
       </c>
       <c r="M42" s="9">
-        <v>4.4329999999999997E-6</v>
+        <v>2.5180000000000001E-11</v>
       </c>
       <c r="N42" s="4">
-        <v>1.01688</v>
+        <v>1.370614</v>
       </c>
       <c r="O42">
-        <v>3.9316999999999998E-2</v>
+        <v>6.4243900000000007E-2</v>
       </c>
       <c r="P42" s="4">
-        <v>0.66941329999999999</v>
+        <v>9.2900000000000002E-7</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.33470664999999999</v>
+        <v>4.6450000000000001E-7</v>
       </c>
       <c r="R42" s="4">
-        <v>1.016</v>
+        <v>1.143</v>
       </c>
       <c r="S42" s="4">
-        <v>4.0464E-2</v>
+        <v>6.2475000000000003E-2</v>
       </c>
       <c r="T42" s="4">
-        <v>0.69535000000000002</v>
+        <v>3.2543999999999997E-2</v>
       </c>
       <c r="U42" s="4">
-        <v>0.34767500000000001</v>
+        <v>1.6271999999999998E-2</v>
       </c>
       <c r="V42" s="4">
-        <v>1.0009999999999999</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="W42" s="4">
-        <v>4.0613999999999997E-2</v>
+        <v>6.7574999999999996E-2</v>
       </c>
       <c r="X42" s="4">
-        <v>0.97367999999999999</v>
+        <v>6.7080000000000004E-3</v>
       </c>
       <c r="Y42" s="4">
-        <v>0.48683999999999999</v>
+        <v>3.3540000000000002E-3</v>
       </c>
       <c r="Z42" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4">
         <v>6</v>
       </c>
       <c r="C43" s="4">
-        <v>32863268</v>
+        <v>33038773</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="7">
-        <v>1.2135</v>
+        <v>1.1854</v>
       </c>
       <c r="F43" s="4">
-        <v>3.3459999999999997E-8</v>
+        <v>2.7630000000000001E-6</v>
       </c>
       <c r="G43" s="7">
-        <v>1.0600716215829999</v>
+        <v>1.095</v>
       </c>
       <c r="H43" s="1">
-        <v>9.5192645449553998E-2</v>
+        <v>0.18889975193112199</v>
       </c>
       <c r="I43" s="7">
-        <v>1.1524850567377101</v>
+        <v>1.1750387722743201</v>
       </c>
       <c r="J43">
-        <v>2.7522378201427802E-2</v>
+        <v>3.4232428043845797E-2</v>
       </c>
       <c r="K43" s="10">
-        <v>2.5154082328171501E-7</v>
+        <v>2.4536971079402998E-6</v>
       </c>
       <c r="L43" s="14">
-        <v>1.1839</v>
+        <v>1.2037</v>
       </c>
       <c r="M43" s="9">
-        <v>2.5180000000000001E-11</v>
+        <v>2.3239999999999998E-9</v>
       </c>
       <c r="N43" s="4">
-        <v>1.370614</v>
+        <v>1.3455330000000001</v>
       </c>
       <c r="O43">
-        <v>6.4243900000000007E-2</v>
+        <v>7.3589100000000005E-2</v>
       </c>
       <c r="P43" s="4">
-        <v>9.2900000000000002E-7</v>
+        <v>1.6200000000000001E-5</v>
       </c>
       <c r="Q43" s="4">
-        <v>4.6450000000000001E-7</v>
+        <v>8.1000000000000004E-6</v>
       </c>
       <c r="R43" s="4">
-        <v>1.143</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="S43" s="4">
-        <v>6.2475000000000003E-2</v>
+        <v>6.7948999999999996E-2</v>
       </c>
       <c r="T43" s="4">
-        <v>3.2543999999999997E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="U43" s="4">
-        <v>1.6271999999999998E-2</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="V43" s="4">
-        <v>1.2010000000000001</v>
+        <v>1.131</v>
       </c>
       <c r="W43" s="4">
-        <v>6.7574999999999996E-2</v>
+        <v>7.2180999999999995E-2</v>
       </c>
       <c r="X43" s="4">
-        <v>6.7080000000000004E-3</v>
+        <v>8.8047E-2</v>
       </c>
       <c r="Y43" s="4">
-        <v>3.3540000000000002E-3</v>
+        <v>4.40235E-2</v>
       </c>
       <c r="Z43" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="4">
         <v>6</v>
       </c>
       <c r="C44" s="4">
-        <v>33038773</v>
+        <v>43276095</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44" s="7">
-        <v>1.1854</v>
+        <v>1.1528</v>
       </c>
       <c r="F44" s="4">
-        <v>2.7630000000000001E-6</v>
+        <v>1.4589999999999999E-6</v>
       </c>
       <c r="G44" s="7">
-        <v>1.095</v>
+        <v>1.0183481515552799</v>
       </c>
       <c r="H44" s="1">
-        <v>0.18889975193112199</v>
+        <v>0.24449948569728799</v>
       </c>
       <c r="I44" s="7">
-        <v>1.1750387722743201</v>
+        <v>1.07578251644594</v>
       </c>
       <c r="J44">
-        <v>3.4232428043845797E-2</v>
+        <v>1.9622023976143401E-2</v>
       </c>
       <c r="K44" s="10">
-        <v>2.4536971079402998E-6</v>
+        <v>1.9704754348826001E-4</v>
       </c>
       <c r="L44" s="14">
-        <v>1.2037</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="M44" s="9">
-        <v>2.3239999999999998E-9</v>
+        <v>5.5739999999999998E-5</v>
       </c>
       <c r="N44" s="4">
-        <v>1.3455330000000001</v>
+        <v>1.0990219999999999</v>
       </c>
       <c r="O44">
-        <v>7.3589100000000005E-2</v>
+        <v>5.9734500000000003E-2</v>
       </c>
       <c r="P44" s="4">
-        <v>1.6200000000000001E-5</v>
+        <v>8.0957399999999999E-2</v>
       </c>
       <c r="Q44" s="4">
-        <v>8.1000000000000004E-6</v>
+        <v>4.0478699999999999E-2</v>
       </c>
       <c r="R44" s="4">
-        <v>1.1879999999999999</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="S44" s="4">
-        <v>6.7948999999999996E-2</v>
+        <v>5.4531000000000003E-2</v>
       </c>
       <c r="T44" s="4">
-        <v>1.1299999999999999E-2</v>
+        <v>0.50760000000000005</v>
       </c>
       <c r="U44" s="4">
-        <v>5.6499999999999996E-3</v>
+        <v>0.25380000000000003</v>
       </c>
       <c r="V44" s="4">
-        <v>1.131</v>
+        <v>1.06</v>
       </c>
       <c r="W44" s="4">
-        <v>7.2180999999999995E-2</v>
+        <v>5.5728E-2</v>
       </c>
       <c r="X44" s="4">
-        <v>8.8047E-2</v>
+        <v>0.29759999999999998</v>
       </c>
       <c r="Y44" s="4">
-        <v>4.40235E-2</v>
+        <v>0.14879999999999999</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4">
-        <v>43276095</v>
+        <v>2192688</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="7">
-        <v>1.1528</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="F45" s="4">
-        <v>1.4589999999999999E-6</v>
+        <v>5.0609999999999995E-8</v>
       </c>
       <c r="G45" s="7">
-        <v>1.0183481515552799</v>
+        <v>1.0176646681300201</v>
       </c>
       <c r="H45" s="1">
-        <v>0.24449948569728799</v>
+        <v>0.192349495649003</v>
       </c>
       <c r="I45" s="7">
-        <v>1.07578251644594</v>
+        <v>1.06608258592202</v>
       </c>
       <c r="J45">
-        <v>1.9622023976143401E-2</v>
+        <v>1.4667836480645201E-2</v>
       </c>
       <c r="K45" s="10">
-        <v>1.9704754348826001E-4</v>
+        <v>1.2849007155812901E-5</v>
       </c>
       <c r="L45" s="14">
-        <v>1.0780000000000001</v>
+        <v>1.0669</v>
       </c>
       <c r="M45" s="9">
-        <v>5.5739999999999998E-5</v>
+        <v>2.7310000000000002E-6</v>
       </c>
       <c r="N45" s="4">
-        <v>1.0990219999999999</v>
+        <v>1.0730759999999999</v>
       </c>
       <c r="O45">
-        <v>5.9734500000000003E-2</v>
+        <v>4.0810399999999997E-2</v>
       </c>
       <c r="P45" s="4">
-        <v>8.0957399999999999E-2</v>
+        <v>8.4052600000000005E-2</v>
       </c>
       <c r="Q45" s="4">
-        <v>4.0478699999999999E-2</v>
+        <v>4.2026300000000003E-2</v>
       </c>
       <c r="R45" s="4">
-        <v>1.0369999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="S45" s="4">
-        <v>5.4531000000000003E-2</v>
+        <v>4.1165E-2</v>
       </c>
       <c r="T45" s="4">
-        <v>0.50760000000000005</v>
+        <v>0.33495999999999998</v>
       </c>
       <c r="U45" s="4">
-        <v>0.25380000000000003</v>
+        <v>0.16747999999999999</v>
       </c>
       <c r="V45" s="4">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="W45" s="4">
-        <v>5.5728E-2</v>
+        <v>4.1702999999999997E-2</v>
       </c>
       <c r="X45" s="4">
-        <v>0.29759999999999998</v>
+        <v>0.47406999999999999</v>
       </c>
       <c r="Y45" s="4">
-        <v>0.14879999999999999</v>
+        <v>0.237035</v>
       </c>
       <c r="Z45" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="4">
         <v>7</v>
       </c>
       <c r="C46" s="4">
-        <v>2192688</v>
+        <v>71389252</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="7">
-        <v>1.1234999999999999</v>
+        <v>1.0982000000000001</v>
       </c>
       <c r="F46" s="4">
-        <v>5.0609999999999995E-8</v>
+        <v>5.1600000000000006E-6</v>
       </c>
       <c r="G46" s="7">
-        <v>1.0176646681300201</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.192349495649003</v>
+        <v>1.05041046909364</v>
+      </c>
+      <c r="H46" s="9">
+        <v>3.20611726323657E-2</v>
       </c>
       <c r="I46" s="7">
-        <v>1.06608258592202</v>
+        <v>1.0801140687281401</v>
       </c>
       <c r="J46">
-        <v>1.4667836480645201E-2</v>
+        <v>1.62295264032963E-2</v>
       </c>
       <c r="K46" s="10">
-        <v>1.2849007155812901E-5</v>
+        <v>2.0488416201391899E-6</v>
       </c>
       <c r="L46" s="14">
-        <v>1.0669</v>
+        <v>1.0852999999999999</v>
       </c>
       <c r="M46" s="9">
-        <v>2.7310000000000002E-6</v>
+        <v>5.2579999999999998E-8</v>
       </c>
       <c r="N46" s="4">
-        <v>1.0730759999999999</v>
+        <v>1.117</v>
       </c>
       <c r="O46">
-        <v>4.0810399999999997E-2</v>
+        <v>3.9933200000000002E-2</v>
       </c>
       <c r="P46" s="4">
-        <v>8.4052600000000005E-2</v>
+        <v>5.7152000000000001E-3</v>
       </c>
       <c r="Q46" s="4">
-        <v>4.2026300000000003E-2</v>
+        <v>2.8576000000000001E-3</v>
       </c>
       <c r="R46" s="4">
-        <v>1.04</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="S46" s="4">
-        <v>4.1165E-2</v>
+        <v>4.0379999999999999E-2</v>
       </c>
       <c r="T46" s="4">
-        <v>0.33495999999999998</v>
+        <v>4.5661E-2</v>
       </c>
       <c r="U46" s="4">
-        <v>0.16747999999999999</v>
+        <v>2.28305E-2</v>
       </c>
       <c r="V46" s="4">
-        <v>1.03</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="W46" s="4">
-        <v>4.1702999999999997E-2</v>
+        <v>4.1029000000000003E-2</v>
       </c>
       <c r="X46" s="4">
-        <v>0.47406999999999999</v>
+        <v>0.48124</v>
       </c>
       <c r="Y46" s="4">
-        <v>0.237035</v>
+        <v>0.24062</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="4">
         <v>7</v>
       </c>
       <c r="C47" s="4">
-        <v>71389252</v>
+        <v>134347420</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E47" s="7">
-        <v>1.0982000000000001</v>
+        <v>1.1445576284765937</v>
       </c>
       <c r="F47" s="4">
-        <v>5.1600000000000006E-6</v>
+        <v>4.1799999999999998E-6</v>
       </c>
       <c r="G47" s="7">
-        <v>1.05041046909364</v>
-      </c>
-      <c r="H47" s="9">
-        <v>3.20611726323657E-2</v>
+        <v>0.98165281150541817</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.63924324635250196</v>
       </c>
       <c r="I47" s="7">
-        <v>1.0801140687281401</v>
+        <v>1.102926564410825</v>
       </c>
       <c r="J47">
-        <v>1.62295264032963E-2</v>
+        <v>2.5520978629219902E-2</v>
       </c>
       <c r="K47" s="10">
-        <v>2.0488416201391899E-6</v>
+        <v>1.2369179784999001E-4</v>
       </c>
       <c r="L47" s="14">
-        <v>1.0852999999999999</v>
-      </c>
-      <c r="M47" s="9">
-        <v>5.2579999999999998E-8</v>
+        <v>1.0847</v>
+      </c>
+      <c r="M47" s="14">
+        <v>4.9759999999999995E-4</v>
       </c>
       <c r="N47" s="4">
-        <v>1.117</v>
+        <v>0.99601600000000001</v>
       </c>
       <c r="O47">
-        <v>3.9933200000000002E-2</v>
+        <v>5.7644099999999997E-2</v>
       </c>
       <c r="P47" s="4">
-        <v>5.7152000000000001E-3</v>
+        <v>0.94349729999999998</v>
       </c>
       <c r="Q47" s="4">
-        <v>2.8576000000000001E-3</v>
+        <v>0.52825135000000001</v>
       </c>
       <c r="R47" s="4">
-        <v>1.0840000000000001</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="S47" s="4">
-        <v>4.0379999999999999E-2</v>
+        <v>5.8266999999999999E-2</v>
       </c>
       <c r="T47" s="4">
-        <v>4.5661E-2</v>
+        <v>0.55754000000000004</v>
       </c>
       <c r="U47" s="4">
-        <v>2.28305E-2</v>
+        <v>0.72123000000000004</v>
       </c>
       <c r="V47" s="4">
-        <v>1.0289999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="W47" s="4">
-        <v>4.1029000000000003E-2</v>
+        <v>5.8872000000000001E-2</v>
       </c>
       <c r="X47" s="4">
-        <v>0.48124</v>
+        <v>0.6099</v>
       </c>
       <c r="Y47" s="4">
-        <v>0.24062</v>
+        <v>0.30495</v>
       </c>
       <c r="Z47" s="15" t="s">
         <v>104</v>
@@ -4502,399 +4517,399 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="4">
-        <v>134347420</v>
+        <v>4168252</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" s="7">
-        <v>1.1445576284765937</v>
+        <v>1.1414</v>
       </c>
       <c r="F48" s="4">
-        <v>4.1799999999999998E-6</v>
+        <v>3.8369999999999997E-7</v>
       </c>
       <c r="G48" s="7">
-        <v>0.98165281150541817</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.63924324635250196</v>
+        <v>1.08155613591901</v>
+      </c>
+      <c r="H48" s="9">
+        <v>7.6020840481900703E-3</v>
       </c>
       <c r="I48" s="7">
-        <v>1.102926564410825</v>
+        <v>1.1174826138501599</v>
       </c>
       <c r="J48">
-        <v>2.5520978629219902E-2</v>
+        <v>2.0252876220075499E-2</v>
       </c>
       <c r="K48" s="10">
-        <v>1.2369179784999001E-4</v>
+        <v>4.1445643583770701E-8</v>
       </c>
       <c r="L48" s="14">
-        <v>1.0847</v>
-      </c>
-      <c r="M48" s="14">
-        <v>4.9759999999999995E-4</v>
+        <v>1.1042000000000001</v>
+      </c>
+      <c r="M48" s="9">
+        <v>1.35E-7</v>
       </c>
       <c r="N48" s="4">
-        <v>0.99601600000000001</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="O48">
-        <v>5.7644099999999997E-2</v>
+        <v>5.0417700000000003E-2</v>
       </c>
       <c r="P48" s="4">
-        <v>0.94349729999999998</v>
+        <v>0.63026649999999995</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.52825135000000001</v>
+        <v>0.31513324999999998</v>
       </c>
       <c r="R48" s="4">
-        <v>0.96640000000000004</v>
+        <v>0.9597</v>
       </c>
       <c r="S48" s="4">
-        <v>5.8266999999999999E-2</v>
+        <v>5.2049999999999999E-2</v>
       </c>
       <c r="T48" s="4">
-        <v>0.55754000000000004</v>
+        <v>0.42970999999999998</v>
       </c>
       <c r="U48" s="4">
-        <v>0.72123000000000004</v>
+        <v>0.78514499999999998</v>
       </c>
       <c r="V48" s="4">
-        <v>1.03</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="W48" s="4">
-        <v>5.8872000000000001E-2</v>
+        <v>5.2283999999999997E-2</v>
       </c>
       <c r="X48" s="4">
-        <v>0.6099</v>
+        <v>0.21260999999999999</v>
       </c>
       <c r="Y48" s="4">
-        <v>0.30495</v>
+        <v>0.106305</v>
       </c>
       <c r="Z48" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="4">
         <v>8</v>
       </c>
       <c r="C49" s="4">
-        <v>4168252</v>
+        <v>4201587</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E49" s="7">
-        <v>1.1414</v>
+        <v>1.1179999999999999</v>
       </c>
       <c r="F49" s="4">
-        <v>3.8369999999999997E-7</v>
+        <v>1.9649999999999999E-7</v>
       </c>
       <c r="G49" s="7">
-        <v>1.08155613591901</v>
-      </c>
-      <c r="H49" s="9">
-        <v>7.6020840481900703E-3</v>
+        <v>1.0271001686663199</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.16572884568993301</v>
       </c>
       <c r="I49" s="7">
-        <v>1.1174826138501599</v>
+        <v>1.08285873420311</v>
       </c>
       <c r="J49">
-        <v>2.0252876220075499E-2</v>
+        <v>1.6896443775737999E-2</v>
       </c>
       <c r="K49" s="10">
-        <v>4.1445643583770701E-8</v>
+        <v>2.4611980475874898E-6</v>
       </c>
       <c r="L49" s="14">
-        <v>1.1042000000000001</v>
+        <v>1.0744</v>
       </c>
       <c r="M49" s="9">
-        <v>1.35E-7</v>
+        <v>4.4830000000000001E-6</v>
       </c>
       <c r="N49" s="4">
         <v>1.0249999999999999</v>
       </c>
       <c r="O49">
-        <v>5.0417700000000003E-2</v>
+        <v>4.1447400000000002E-2</v>
       </c>
       <c r="P49" s="4">
-        <v>0.63026649999999995</v>
+        <v>0.54515400000000003</v>
       </c>
       <c r="Q49" s="4">
-        <v>0.31513324999999998</v>
+        <v>0.27257700000000001</v>
       </c>
       <c r="R49" s="4">
-        <v>0.9597</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="S49" s="4">
-        <v>5.2049999999999999E-2</v>
+        <v>4.2410999999999997E-2</v>
       </c>
       <c r="T49" s="4">
-        <v>0.42970999999999998</v>
+        <v>0.94984000000000002</v>
       </c>
       <c r="U49" s="4">
-        <v>0.78514499999999998</v>
+        <v>0.52507999999999999</v>
       </c>
       <c r="V49" s="4">
-        <v>1.0669999999999999</v>
+        <v>1.028</v>
       </c>
       <c r="W49" s="4">
-        <v>5.2283999999999997E-2</v>
+        <v>4.2782000000000001E-2</v>
       </c>
       <c r="X49" s="4">
-        <v>0.21260999999999999</v>
+        <v>0.51410999999999996</v>
       </c>
       <c r="Y49" s="4">
-        <v>0.106305</v>
+        <v>0.25705499999999998</v>
       </c>
       <c r="Z49" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="4">
         <v>8</v>
       </c>
       <c r="C50" s="4">
-        <v>4201587</v>
+        <v>8672925</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50" s="7">
-        <v>1.1179999999999999</v>
+        <v>1.1520999999999999</v>
       </c>
       <c r="F50" s="4">
-        <v>1.9649999999999999E-7</v>
+        <v>5.7810000000000002E-6</v>
       </c>
       <c r="G50" s="7">
-        <v>1.0271001686663199</v>
+        <v>1.01900485365789</v>
       </c>
       <c r="H50" s="1">
-        <v>0.16572884568993301</v>
+        <v>0.331747879083375</v>
       </c>
       <c r="I50" s="7">
-        <v>1.08285873420311</v>
+        <v>1.1047224974602501</v>
       </c>
       <c r="J50">
-        <v>1.6896443775737999E-2</v>
+        <v>2.53072616701699E-2</v>
       </c>
       <c r="K50" s="10">
-        <v>2.4611980475874898E-6</v>
+        <v>8.3058621501930205E-5</v>
       </c>
       <c r="L50" s="14">
-        <v>1.0744</v>
-      </c>
-      <c r="M50" s="9">
-        <v>4.4830000000000001E-6</v>
+        <v>1.0703</v>
+      </c>
+      <c r="M50" s="14">
+        <v>3.3969999999999998E-3</v>
       </c>
       <c r="N50" s="4">
-        <v>1.0249999999999999</v>
+        <v>0.90579710000000002</v>
       </c>
       <c r="O50">
-        <v>4.1447400000000002E-2</v>
+        <v>5.81454E-2</v>
       </c>
       <c r="P50" s="4">
-        <v>0.54515400000000003</v>
+        <v>8.8811000000000001E-2</v>
       </c>
       <c r="Q50" s="4">
-        <v>0.27257700000000001</v>
+        <v>0.95559450000000001</v>
       </c>
       <c r="R50" s="4">
-        <v>0.99729999999999996</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="S50" s="4">
-        <v>4.2410999999999997E-2</v>
+        <v>6.0768999999999997E-2</v>
       </c>
       <c r="T50" s="4">
-        <v>0.94984000000000002</v>
+        <v>0.99024999999999996</v>
       </c>
       <c r="U50" s="4">
-        <v>0.52507999999999999</v>
+        <v>0.49512499999999998</v>
       </c>
       <c r="V50" s="4">
-        <v>1.028</v>
+        <v>0.90349999999999997</v>
       </c>
       <c r="W50" s="4">
-        <v>4.2782000000000001E-2</v>
+        <v>6.0407000000000002E-2</v>
       </c>
       <c r="X50" s="4">
-        <v>0.51410999999999996</v>
+        <v>9.3067999999999998E-2</v>
       </c>
       <c r="Y50" s="4">
-        <v>0.25705499999999998</v>
+        <v>0.95346600000000004</v>
       </c>
       <c r="Z50" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="4">
         <v>8</v>
       </c>
       <c r="C51" s="4">
-        <v>8672925</v>
+        <v>9275118</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E51" s="7">
-        <v>1.1520999999999999</v>
+        <v>1.1052999999999999</v>
       </c>
       <c r="F51" s="4">
-        <v>5.7810000000000002E-6</v>
+        <v>3.0590000000000003E-6</v>
       </c>
       <c r="G51" s="7">
-        <v>1.01900485365789</v>
+        <v>1.0268663788626999</v>
       </c>
       <c r="H51" s="1">
-        <v>0.331747879083375</v>
+        <v>0.240897506435055</v>
       </c>
       <c r="I51" s="7">
-        <v>1.1047224974602501</v>
+        <v>1.08564312141244</v>
       </c>
       <c r="J51">
-        <v>2.53072616701699E-2</v>
+        <v>1.8609497823692801E-2</v>
       </c>
       <c r="K51" s="10">
-        <v>8.3058621501930205E-5</v>
+        <v>1.0071890316876201E-5</v>
       </c>
       <c r="L51" s="14">
-        <v>1.0703</v>
-      </c>
-      <c r="M51" s="14">
-        <v>3.3969999999999998E-3</v>
+        <v>1.0801000000000001</v>
+      </c>
+      <c r="M51" s="9">
+        <v>4.9269999999999996E-6</v>
       </c>
       <c r="N51" s="4">
-        <v>0.90579710000000002</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="O51">
-        <v>5.81454E-2</v>
+        <v>4.00376E-2</v>
       </c>
       <c r="P51" s="4">
-        <v>8.8811000000000001E-2</v>
+        <v>0.18459020000000001</v>
       </c>
       <c r="Q51" s="4">
-        <v>0.95559450000000001</v>
+        <v>9.2295100000000005E-2</v>
       </c>
       <c r="R51" s="4">
-        <v>1.0009999999999999</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="S51" s="4">
-        <v>6.0768999999999997E-2</v>
+        <v>4.0422E-2</v>
       </c>
       <c r="T51" s="4">
-        <v>0.99024999999999996</v>
+        <v>0.42597000000000002</v>
       </c>
       <c r="U51" s="4">
-        <v>0.49512499999999998</v>
+        <v>0.21298500000000001</v>
       </c>
       <c r="V51" s="4">
-        <v>0.90349999999999997</v>
+        <v>1.02</v>
       </c>
       <c r="W51" s="4">
-        <v>6.0407000000000002E-2</v>
+        <v>4.0925000000000003E-2</v>
       </c>
       <c r="X51" s="4">
-        <v>9.3067999999999998E-2</v>
+        <v>0.62021000000000004</v>
       </c>
       <c r="Y51" s="4">
-        <v>0.95346600000000004</v>
+        <v>0.31010500000000002</v>
       </c>
       <c r="Z51" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="4">
         <v>8</v>
       </c>
       <c r="C52" s="4">
-        <v>9275118</v>
+        <v>89829427</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" s="7">
-        <v>1.1052999999999999</v>
+        <v>1.1655011655011656</v>
       </c>
       <c r="F52" s="4">
-        <v>3.0590000000000003E-6</v>
+        <v>1.447E-8</v>
       </c>
       <c r="G52" s="7">
-        <v>1.0268663788626999</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.240897506435055</v>
+        <v>1.0599250671205422</v>
+      </c>
+      <c r="H52" s="9">
+        <v>1.08036138214379E-2</v>
       </c>
       <c r="I52" s="7">
-        <v>1.08564312141244</v>
+        <v>1.1081098741433681</v>
       </c>
       <c r="J52">
-        <v>1.8609497823692801E-2</v>
+        <v>1.8474903593305E-2</v>
       </c>
       <c r="K52" s="10">
-        <v>1.0071890316876201E-5</v>
+        <v>2.75242328928726E-8</v>
       </c>
       <c r="L52" s="14">
-        <v>1.0801000000000001</v>
+        <v>1.0952</v>
       </c>
       <c r="M52" s="9">
-        <v>4.9269999999999996E-6</v>
+        <v>1.842E-7</v>
       </c>
       <c r="N52" s="4">
-        <v>1.0549999999999999</v>
+        <v>0.99470000000000003</v>
       </c>
       <c r="O52">
-        <v>4.00376E-2</v>
+        <v>5.3059700000000001E-2</v>
       </c>
       <c r="P52" s="4">
-        <v>0.18459020000000001</v>
+        <v>0.92069889999999999</v>
       </c>
       <c r="Q52" s="4">
-        <v>9.2295100000000005E-2</v>
+        <v>0.53965054999999995</v>
       </c>
       <c r="R52" s="4">
-        <v>1.0329999999999999</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="S52" s="4">
-        <v>4.0422E-2</v>
+        <v>5.4238000000000001E-2</v>
       </c>
       <c r="T52" s="4">
-        <v>0.42597000000000002</v>
+        <v>0.86953000000000003</v>
       </c>
       <c r="U52" s="4">
-        <v>0.21298500000000001</v>
+        <v>0.56523499999999993</v>
       </c>
       <c r="V52" s="4">
-        <v>1.02</v>
+        <v>1.004</v>
       </c>
       <c r="W52" s="4">
-        <v>4.0925000000000003E-2</v>
+        <v>5.4452E-2</v>
       </c>
       <c r="X52" s="4">
-        <v>0.62021000000000004</v>
+        <v>0.94862000000000002</v>
       </c>
       <c r="Y52" s="4">
-        <v>0.31010500000000002</v>
+        <v>0.47431000000000001</v>
       </c>
       <c r="Z52" s="15" t="s">
         <v>104</v>
@@ -4902,159 +4917,159 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="4">
         <v>8</v>
       </c>
       <c r="C53" s="4">
-        <v>89829427</v>
+        <v>143307411</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E53" s="7">
-        <v>1.1655011655011656</v>
+        <v>1.0984</v>
       </c>
       <c r="F53" s="4">
-        <v>1.447E-8</v>
+        <v>5.4240000000000001E-6</v>
       </c>
       <c r="G53" s="7">
-        <v>1.0599250671205422</v>
-      </c>
-      <c r="H53" s="9">
-        <v>1.08036138214379E-2</v>
+        <v>1.0241433994803599</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.238557188415222</v>
       </c>
       <c r="I53" s="7">
-        <v>1.1081098741433681</v>
+        <v>1.0775552695302799</v>
       </c>
       <c r="J53">
-        <v>1.8474903593305E-2</v>
+        <v>1.7555765411840799E-2</v>
       </c>
       <c r="K53" s="10">
-        <v>2.75242328928726E-8</v>
+        <v>2.0931238834176503E-5</v>
       </c>
       <c r="L53" s="14">
-        <v>1.0952</v>
+        <v>1.0812999999999999</v>
       </c>
       <c r="M53" s="9">
-        <v>1.842E-7</v>
+        <v>1.1909999999999999E-6</v>
       </c>
       <c r="N53" s="4">
-        <v>0.99470000000000003</v>
+        <v>1.101</v>
       </c>
       <c r="O53">
-        <v>5.3059700000000001E-2</v>
+        <v>4.0194199999999999E-2</v>
       </c>
       <c r="P53" s="4">
-        <v>0.92069889999999999</v>
+        <v>1.6455500000000001E-2</v>
       </c>
       <c r="Q53" s="4">
-        <v>0.53965054999999995</v>
+        <v>8.2277500000000007E-3</v>
       </c>
       <c r="R53" s="4">
-        <v>0.99109999999999998</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="S53" s="4">
-        <v>5.4238000000000001E-2</v>
+        <v>4.0683999999999998E-2</v>
       </c>
       <c r="T53" s="4">
-        <v>0.86953000000000003</v>
+        <v>0.39172000000000001</v>
       </c>
       <c r="U53" s="4">
-        <v>0.56523499999999993</v>
+        <v>0.19586000000000001</v>
       </c>
       <c r="V53" s="4">
-        <v>1.004</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="W53" s="4">
-        <v>5.4452E-2</v>
+        <v>4.1506000000000001E-2</v>
       </c>
       <c r="X53" s="4">
-        <v>0.94862000000000002</v>
+        <v>0.13603999999999999</v>
       </c>
       <c r="Y53" s="4">
-        <v>0.47431000000000001</v>
+        <v>6.8019999999999997E-2</v>
       </c>
       <c r="Z53" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4733341</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="4">
-        <v>143307411</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E54" s="7">
-        <v>1.0984</v>
+        <v>1.1614</v>
       </c>
       <c r="F54" s="4">
-        <v>5.4240000000000001E-6</v>
+        <v>6.5729999999999994E-7</v>
       </c>
       <c r="G54" s="7">
-        <v>1.0241433994803599</v>
+        <v>0.95323038526208204</v>
       </c>
       <c r="H54" s="1">
-        <v>0.238557188415222</v>
+        <v>0.94829230240997997</v>
       </c>
       <c r="I54" s="7">
-        <v>1.0775552695302799</v>
+        <v>1.04978149063972</v>
       </c>
       <c r="J54">
-        <v>1.7555765411840799E-2</v>
+        <v>2.1036614999921099E-2</v>
       </c>
       <c r="K54" s="10">
-        <v>2.0931238834176503E-5</v>
+        <v>2.0921185047158501E-2</v>
       </c>
       <c r="L54" s="14">
-        <v>1.0812999999999999</v>
-      </c>
-      <c r="M54" s="9">
-        <v>1.1909999999999999E-6</v>
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="M54" s="14">
+        <v>6.2420000000000003E-2</v>
       </c>
       <c r="N54" s="4">
-        <v>1.101</v>
+        <v>0.94876660000000002</v>
       </c>
       <c r="O54">
-        <v>4.0194199999999999E-2</v>
+        <v>5.8103599999999998E-2</v>
       </c>
       <c r="P54" s="4">
-        <v>1.6455500000000001E-2</v>
+        <v>0.36584030000000001</v>
       </c>
       <c r="Q54" s="4">
-        <v>8.2277500000000007E-3</v>
+        <v>0.81707985000000005</v>
       </c>
       <c r="R54" s="4">
-        <v>1.0349999999999999</v>
+        <v>0.9113</v>
       </c>
       <c r="S54" s="4">
-        <v>4.0683999999999998E-2</v>
+        <v>5.9062999999999997E-2</v>
       </c>
       <c r="T54" s="4">
-        <v>0.39172000000000001</v>
+        <v>0.11581</v>
       </c>
       <c r="U54" s="4">
-        <v>0.19586000000000001</v>
+        <v>0.94209500000000002</v>
       </c>
       <c r="V54" s="4">
-        <v>1.0640000000000001</v>
+        <v>1.042</v>
       </c>
       <c r="W54" s="4">
-        <v>4.1506000000000001E-2</v>
+        <v>6.0106E-2</v>
       </c>
       <c r="X54" s="4">
-        <v>0.13603999999999999</v>
+        <v>0.49764000000000003</v>
       </c>
       <c r="Y54" s="4">
-        <v>6.8019999999999997E-2</v>
+        <v>0.24882000000000001</v>
       </c>
       <c r="Z54" s="15" t="s">
         <v>104</v>
@@ -5062,1839 +5077,1839 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" s="4">
-        <v>4733341</v>
+        <v>6986269</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E55" s="7">
-        <v>1.1614</v>
+        <v>1.1858176212498517</v>
       </c>
       <c r="F55" s="4">
-        <v>6.5729999999999994E-7</v>
+        <v>1.8240000000000002E-5</v>
       </c>
       <c r="G55" s="7">
-        <v>0.95323038526208204</v>
+        <v>1.0514579339431065</v>
       </c>
       <c r="H55" s="1">
-        <v>0.94829230240997997</v>
+        <v>0.23621547208291199</v>
       </c>
       <c r="I55" s="7">
-        <v>1.04978149063972</v>
+        <v>1.1513657605842309</v>
       </c>
       <c r="J55">
-        <v>2.1036614999921099E-2</v>
+        <v>3.4578469448318397E-2</v>
       </c>
       <c r="K55" s="10">
-        <v>2.0921185047158501E-2</v>
+        <v>4.5777089092036102E-5</v>
       </c>
       <c r="L55" s="14">
-        <v>1.0375000000000001</v>
-      </c>
-      <c r="M55" s="14">
-        <v>6.2420000000000003E-2</v>
+        <v>1.1485000000000001</v>
+      </c>
+      <c r="M55" s="9">
+        <v>1.0349999999999999E-5</v>
       </c>
       <c r="N55" s="4">
-        <v>0.94876660000000002</v>
+        <v>1.135</v>
       </c>
       <c r="O55">
-        <v>5.8103599999999998E-2</v>
+        <v>7.4885099999999996E-2</v>
       </c>
       <c r="P55" s="4">
-        <v>0.36584030000000001</v>
+        <v>9.0796299999999996E-2</v>
       </c>
       <c r="Q55" s="4">
-        <v>0.81707985000000005</v>
+        <v>4.5398149999999998E-2</v>
       </c>
       <c r="R55" s="4">
-        <v>0.9113</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="S55" s="4">
-        <v>5.9062999999999997E-2</v>
+        <v>7.7494999999999994E-2</v>
       </c>
       <c r="T55" s="4">
-        <v>0.11581</v>
+        <v>0.76780000000000004</v>
       </c>
       <c r="U55" s="4">
-        <v>0.94209500000000002</v>
+        <v>0.38390000000000002</v>
       </c>
       <c r="V55" s="4">
-        <v>1.042</v>
+        <v>1.109</v>
       </c>
       <c r="W55" s="4">
-        <v>6.0106E-2</v>
+        <v>7.6798000000000005E-2</v>
       </c>
       <c r="X55" s="4">
-        <v>0.49764000000000003</v>
+        <v>0.17663000000000001</v>
       </c>
       <c r="Y55" s="4">
-        <v>0.24882000000000001</v>
+        <v>8.8315000000000005E-2</v>
       </c>
       <c r="Z55" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="4">
         <v>10</v>
       </c>
       <c r="C56" s="4">
-        <v>6986269</v>
+        <v>34190827</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E56" s="7">
-        <v>1.1858176212498517</v>
+        <v>1.2453000000000001</v>
       </c>
       <c r="F56" s="4">
-        <v>1.8240000000000002E-5</v>
+        <v>2.6589999999999999E-6</v>
       </c>
       <c r="G56" s="7">
-        <v>1.0514579339431065</v>
+        <v>0.98370256367502695</v>
       </c>
       <c r="H56" s="1">
-        <v>0.23621547208291199</v>
+        <v>0.57568275007557601</v>
       </c>
       <c r="I56" s="7">
-        <v>1.1513657605842309</v>
+        <v>1.1802972811347101</v>
       </c>
       <c r="J56">
-        <v>3.4578469448318397E-2</v>
+        <v>4.1049636126132098E-2</v>
       </c>
       <c r="K56" s="10">
-        <v>4.5777089092036102E-5</v>
+        <v>5.38646030618928E-5</v>
       </c>
       <c r="L56" s="14">
-        <v>1.1485000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="M56" s="9">
-        <v>1.0349999999999999E-5</v>
+        <v>4.1450000000000001E-6</v>
       </c>
       <c r="N56" s="4">
-        <v>1.135</v>
+        <v>1.179</v>
       </c>
       <c r="O56">
-        <v>7.4885099999999996E-2</v>
+        <v>7.4467400000000003E-2</v>
       </c>
       <c r="P56" s="4">
-        <v>9.0796299999999996E-2</v>
+        <v>2.6654199999999999E-2</v>
       </c>
       <c r="Q56" s="4">
-        <v>4.5398149999999998E-2</v>
+        <v>1.33271E-2</v>
       </c>
       <c r="R56" s="4">
-        <v>1.0229999999999999</v>
+        <v>1.127</v>
       </c>
       <c r="S56" s="4">
-        <v>7.7494999999999994E-2</v>
+        <v>7.6939999999999995E-2</v>
       </c>
       <c r="T56" s="4">
-        <v>0.76780000000000004</v>
+        <v>0.12078</v>
       </c>
       <c r="U56" s="4">
-        <v>0.38390000000000002</v>
+        <v>6.0389999999999999E-2</v>
       </c>
       <c r="V56" s="4">
-        <v>1.109</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="W56" s="4">
-        <v>7.6798000000000005E-2</v>
+        <v>7.5045000000000001E-2</v>
       </c>
       <c r="X56" s="4">
-        <v>0.17663000000000001</v>
+        <v>0.52732000000000001</v>
       </c>
       <c r="Y56" s="4">
-        <v>8.8315000000000005E-2</v>
+        <v>0.26366000000000001</v>
       </c>
       <c r="Z56" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="4">
         <v>10</v>
       </c>
       <c r="C57" s="4">
-        <v>34190827</v>
+        <v>62016644</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" s="7">
-        <v>1.2453000000000001</v>
+        <v>1.1257999999999999</v>
       </c>
       <c r="F57" s="4">
-        <v>2.6589999999999999E-6</v>
+        <v>4.4349999999999999E-6</v>
       </c>
       <c r="G57" s="7">
-        <v>0.98370256367502695</v>
+        <v>1.0546184664350999</v>
       </c>
       <c r="H57" s="1">
-        <v>0.57568275007557601</v>
+        <v>9.5960426159600307E-2</v>
       </c>
       <c r="I57" s="7">
-        <v>1.1802972811347101</v>
+        <v>1.10495650248924</v>
       </c>
       <c r="J57">
-        <v>4.1049636126132098E-2</v>
+        <v>2.1798776151678901E-2</v>
       </c>
       <c r="K57" s="10">
-        <v>5.38646030618928E-5</v>
+        <v>4.6829409863224899E-6</v>
       </c>
       <c r="L57" s="14">
-        <v>1.18</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="M57" s="9">
-        <v>4.1450000000000001E-6</v>
+        <v>2.768E-6</v>
       </c>
       <c r="N57" s="4">
-        <v>1.179</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="O57">
-        <v>7.4467400000000003E-2</v>
+        <v>4.9571799999999999E-2</v>
       </c>
       <c r="P57" s="4">
-        <v>2.6654199999999999E-2</v>
+        <v>0.21820419999999999</v>
       </c>
       <c r="Q57" s="4">
-        <v>1.33271E-2</v>
+        <v>0.10910209999999999</v>
       </c>
       <c r="R57" s="4">
-        <v>1.127</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="S57" s="4">
-        <v>7.6939999999999995E-2</v>
+        <v>5.0793999999999999E-2</v>
       </c>
       <c r="T57" s="4">
-        <v>0.12078</v>
+        <v>0.52183999999999997</v>
       </c>
       <c r="U57" s="4">
-        <v>6.0389999999999999E-2</v>
+        <v>0.73907999999999996</v>
       </c>
       <c r="V57" s="4">
-        <v>1.0489999999999999</v>
+        <v>1.095</v>
       </c>
       <c r="W57" s="4">
-        <v>7.5045000000000001E-2</v>
+        <v>5.0458000000000003E-2</v>
       </c>
       <c r="X57" s="4">
-        <v>0.52732000000000001</v>
+        <v>7.1369000000000002E-2</v>
       </c>
       <c r="Y57" s="4">
-        <v>0.26366000000000001</v>
+        <v>3.5684500000000001E-2</v>
       </c>
       <c r="Z57" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="4">
         <v>10</v>
       </c>
       <c r="C58" s="4">
-        <v>62016644</v>
+        <v>104765898</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E58" s="7">
-        <v>1.1257999999999999</v>
+        <v>1.1160714285714286</v>
       </c>
       <c r="F58" s="4">
-        <v>4.4349999999999999E-6</v>
+        <v>1.5829999999999998E-7</v>
       </c>
       <c r="G58" s="7">
-        <v>1.0546184664350999</v>
-      </c>
-      <c r="H58" s="1">
-        <v>9.5960426159600307E-2</v>
+        <v>1.086744439354588</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1.0734631317496099E-3</v>
       </c>
       <c r="I58" s="7">
-        <v>1.10495650248924</v>
+        <v>1.1049788772062488</v>
       </c>
       <c r="J58">
-        <v>2.1798776151678901E-2</v>
+        <v>1.6600461370295E-2</v>
       </c>
       <c r="K58" s="10">
-        <v>4.6829409863224899E-6</v>
+        <v>1.81604176141548E-9</v>
       </c>
       <c r="L58" s="14">
-        <v>1.0980000000000001</v>
+        <v>1.1034999999999999</v>
       </c>
       <c r="M58" s="9">
-        <v>2.768E-6</v>
+        <v>1.549E-10</v>
       </c>
       <c r="N58" s="4">
-        <v>1.0629999999999999</v>
+        <v>1.0944510000000001</v>
       </c>
       <c r="O58">
-        <v>4.9571799999999999E-2</v>
+        <v>4.0977399999999997E-2</v>
       </c>
       <c r="P58" s="4">
-        <v>0.21820419999999999</v>
+        <v>2.76812E-2</v>
       </c>
       <c r="Q58" s="4">
-        <v>0.10910209999999999</v>
+        <v>1.38406E-2</v>
       </c>
       <c r="R58" s="4">
-        <v>0.96799999999999997</v>
+        <v>1.038</v>
       </c>
       <c r="S58" s="4">
-        <v>5.0793999999999999E-2</v>
+        <v>4.1593999999999999E-2</v>
       </c>
       <c r="T58" s="4">
-        <v>0.52183999999999997</v>
+        <v>0.36892000000000003</v>
       </c>
       <c r="U58" s="4">
-        <v>0.73907999999999996</v>
+        <v>0.18446000000000001</v>
       </c>
       <c r="V58" s="4">
-        <v>1.095</v>
+        <v>1.054</v>
       </c>
       <c r="W58" s="4">
-        <v>5.0458000000000003E-2</v>
+        <v>4.2118000000000003E-2</v>
       </c>
       <c r="X58" s="4">
-        <v>7.1369000000000002E-2</v>
+        <v>0.20974000000000001</v>
       </c>
       <c r="Y58" s="4">
-        <v>3.5684500000000001E-2</v>
+        <v>0.10487</v>
       </c>
       <c r="Z58" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="4">
         <v>10</v>
       </c>
       <c r="C59" s="4">
-        <v>104765898</v>
+        <v>104896201</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E59" s="7">
-        <v>1.1160714285714286</v>
+        <v>1.2272000000000001</v>
       </c>
       <c r="F59" s="4">
-        <v>1.5829999999999998E-7</v>
+        <v>2.2320000000000001E-8</v>
       </c>
       <c r="G59" s="7">
-        <v>1.086744439354588</v>
+        <v>1.09325976462971</v>
       </c>
       <c r="H59" s="9">
-        <v>1.0734631317496099E-3</v>
+        <v>5.0928180177194403E-3</v>
       </c>
       <c r="I59" s="7">
-        <v>1.1049788772062488</v>
+        <v>1.15473882910446</v>
       </c>
       <c r="J59">
-        <v>1.6600461370295E-2</v>
+        <v>2.51820353956516E-2</v>
       </c>
       <c r="K59" s="10">
-        <v>1.81604176141548E-9</v>
+        <v>1.1076279893274E-8</v>
       </c>
       <c r="L59" s="14">
-        <v>1.1034999999999999</v>
+        <v>1.1583000000000001</v>
       </c>
       <c r="M59" s="9">
-        <v>1.549E-10</v>
+        <v>7.4770000000000001E-10</v>
       </c>
       <c r="N59" s="4">
-        <v>1.0944510000000001</v>
+        <v>1.1901930000000001</v>
       </c>
       <c r="O59">
-        <v>4.0977399999999997E-2</v>
+        <v>7.4958200000000003E-2</v>
       </c>
       <c r="P59" s="4">
-        <v>2.76812E-2</v>
+        <v>2.0212999999999998E-2</v>
       </c>
       <c r="Q59" s="4">
-        <v>1.38406E-2</v>
+        <v>1.0106499999999999E-2</v>
       </c>
       <c r="R59" s="4">
-        <v>1.038</v>
+        <v>1.173</v>
       </c>
       <c r="S59" s="4">
-        <v>4.1593999999999999E-2</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="T59" s="4">
-        <v>0.36892000000000003</v>
+        <v>3.5103000000000002E-2</v>
       </c>
       <c r="U59" s="4">
-        <v>0.18446000000000001</v>
+        <v>1.7551500000000001E-2</v>
       </c>
       <c r="V59" s="4">
-        <v>1.054</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="W59" s="4">
-        <v>4.2118000000000003E-2</v>
+        <v>7.9464000000000007E-2</v>
       </c>
       <c r="X59" s="4">
-        <v>0.20974000000000001</v>
+        <v>0.87000999999999995</v>
       </c>
       <c r="Y59" s="4">
-        <v>0.10487</v>
+        <v>0.43500499999999998</v>
       </c>
       <c r="Z59" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="4">
         <v>10</v>
       </c>
       <c r="C60" s="4">
-        <v>104896201</v>
+        <v>105321751</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E60" s="7">
-        <v>1.2272000000000001</v>
+        <v>1.1421999999999999</v>
       </c>
       <c r="F60" s="4">
-        <v>2.2320000000000001E-8</v>
+        <v>2.2569999999999999E-7</v>
       </c>
       <c r="G60" s="7">
-        <v>1.09325976462971</v>
-      </c>
-      <c r="H60" s="9">
-        <v>5.0928180177194403E-3</v>
+        <v>1.04274219536167</v>
+      </c>
+      <c r="H60" s="1">
+        <v>9.77669363189166E-2</v>
       </c>
       <c r="I60" s="7">
-        <v>1.15473882910446</v>
+        <v>1.1026169304934601</v>
       </c>
       <c r="J60">
-        <v>2.51820353956516E-2</v>
+        <v>2.0119248320375899E-2</v>
       </c>
       <c r="K60" s="10">
-        <v>1.1076279893274E-8</v>
+        <v>1.2016254444802099E-6</v>
       </c>
       <c r="L60" s="14">
-        <v>1.1583000000000001</v>
+        <v>1.0928</v>
       </c>
       <c r="M60" s="9">
-        <v>7.4770000000000001E-10</v>
+        <v>1.705E-6</v>
       </c>
       <c r="N60" s="4">
-        <v>1.1901930000000001</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="O60">
-        <v>7.4958200000000003E-2</v>
+        <v>4.7786099999999998E-2</v>
       </c>
       <c r="P60" s="4">
-        <v>2.0212999999999998E-2</v>
+        <v>0.42875600000000003</v>
       </c>
       <c r="Q60" s="4">
-        <v>1.0106499999999999E-2</v>
+        <v>0.21437800000000001</v>
       </c>
       <c r="R60" s="4">
-        <v>1.173</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="S60" s="4">
-        <v>7.5600000000000001E-2</v>
+        <v>4.8239999999999998E-2</v>
       </c>
       <c r="T60" s="4">
-        <v>3.5103000000000002E-2</v>
+        <v>0.18486</v>
       </c>
       <c r="U60" s="4">
-        <v>1.7551500000000001E-2</v>
+        <v>9.2429999999999998E-2</v>
       </c>
       <c r="V60" s="4">
-        <v>1.0129999999999999</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="W60" s="4">
-        <v>7.9464000000000007E-2</v>
+        <v>4.8778000000000002E-2</v>
       </c>
       <c r="X60" s="4">
-        <v>0.87000999999999995</v>
+        <v>0.58543999999999996</v>
       </c>
       <c r="Y60" s="4">
-        <v>0.43500499999999998</v>
+        <v>0.70728000000000002</v>
       </c>
       <c r="Z60" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="4">
         <v>10</v>
       </c>
       <c r="C61" s="4">
-        <v>105321751</v>
+        <v>128297182</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E61" s="7">
-        <v>1.1421999999999999</v>
+        <v>1.1169</v>
       </c>
       <c r="F61" s="4">
-        <v>2.2569999999999999E-7</v>
+        <v>8.2779999999999993E-7</v>
       </c>
       <c r="G61" s="7">
-        <v>1.04274219536167</v>
+        <v>1.00931172505653</v>
       </c>
       <c r="H61" s="1">
-        <v>9.77669363189166E-2</v>
+        <v>0.37005855194398002</v>
       </c>
       <c r="I61" s="7">
-        <v>1.1026169304934601</v>
+        <v>1.07350771046352</v>
       </c>
       <c r="J61">
-        <v>2.0119248320375899E-2</v>
+        <v>1.7477534850087701E-2</v>
       </c>
       <c r="K61" s="10">
-        <v>1.2016254444802099E-6</v>
+        <v>4.9401691026851304E-5</v>
       </c>
       <c r="L61" s="14">
-        <v>1.0928</v>
-      </c>
-      <c r="M61" s="9">
-        <v>1.705E-6</v>
+        <v>1.0565</v>
+      </c>
+      <c r="M61" s="14">
+        <v>6.623E-4</v>
       </c>
       <c r="N61" s="4">
-        <v>1.0389999999999999</v>
+        <v>0.96246390000000004</v>
       </c>
       <c r="O61">
-        <v>4.7786099999999998E-2</v>
+        <v>4.2272299999999999E-2</v>
       </c>
       <c r="P61" s="4">
-        <v>0.42875600000000003</v>
+        <v>0.36981389999999997</v>
       </c>
       <c r="Q61" s="4">
-        <v>0.21437800000000001</v>
+        <v>0.81509304999999999</v>
       </c>
       <c r="R61" s="4">
-        <v>1.0660000000000001</v>
+        <v>0.95050000000000001</v>
       </c>
       <c r="S61" s="4">
-        <v>4.8239999999999998E-2</v>
+        <v>4.2902999999999997E-2</v>
       </c>
       <c r="T61" s="4">
-        <v>0.18486</v>
+        <v>0.23655999999999999</v>
       </c>
       <c r="U61" s="4">
-        <v>9.2429999999999998E-2</v>
+        <v>0.88172000000000006</v>
       </c>
       <c r="V61" s="4">
-        <v>0.97370000000000001</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="W61" s="4">
-        <v>4.8778000000000002E-2</v>
+        <v>4.3767E-2</v>
       </c>
       <c r="X61" s="4">
-        <v>0.58543999999999996</v>
+        <v>0.76307999999999998</v>
       </c>
       <c r="Y61" s="4">
-        <v>0.70728000000000002</v>
+        <v>0.38153999999999999</v>
       </c>
       <c r="Z61" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" s="4">
-        <v>128297182</v>
+        <v>17116724</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E62" s="7">
-        <v>1.1169</v>
+        <v>1.1046062078868883</v>
       </c>
       <c r="F62" s="4">
-        <v>8.2779999999999993E-7</v>
+        <v>1.905E-6</v>
       </c>
       <c r="G62" s="7">
-        <v>1.00931172505653</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.37005855194398002</v>
+        <v>1.0739936912413448</v>
+      </c>
+      <c r="H62" s="9">
+        <v>6.7799257843972303E-3</v>
       </c>
       <c r="I62" s="7">
-        <v>1.07350771046352</v>
+        <v>1.0940041961227225</v>
       </c>
       <c r="J62">
-        <v>1.7477534850087701E-2</v>
+        <v>1.6938579171591601E-2</v>
       </c>
       <c r="K62" s="10">
-        <v>4.9401691026851304E-5</v>
+        <v>1.1320745252341199E-7</v>
       </c>
       <c r="L62" s="14">
-        <v>1.0565</v>
-      </c>
-      <c r="M62" s="14">
-        <v>6.623E-4</v>
+        <v>1.0883</v>
+      </c>
+      <c r="M62" s="9">
+        <v>5.784E-8</v>
       </c>
       <c r="N62" s="4">
-        <v>0.96246390000000004</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="O62">
-        <v>4.2272299999999999E-2</v>
+        <v>3.98914E-2</v>
       </c>
       <c r="P62" s="4">
-        <v>0.36981389999999997</v>
+        <v>0.16711100000000001</v>
       </c>
       <c r="Q62" s="4">
-        <v>0.81509304999999999</v>
+        <v>8.3555500000000005E-2</v>
       </c>
       <c r="R62" s="4">
-        <v>0.95050000000000001</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="S62" s="4">
-        <v>4.2902999999999997E-2</v>
+        <v>4.0694000000000001E-2</v>
       </c>
       <c r="T62" s="4">
-        <v>0.23655999999999999</v>
+        <v>0.82511999999999996</v>
       </c>
       <c r="U62" s="4">
-        <v>0.88172000000000006</v>
+        <v>0.41255999999999998</v>
       </c>
       <c r="V62" s="4">
-        <v>1.0129999999999999</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="W62" s="4">
-        <v>4.3767E-2</v>
+        <v>4.0955999999999999E-2</v>
       </c>
       <c r="X62" s="4">
-        <v>0.76307999999999998</v>
+        <v>0.26090999999999998</v>
       </c>
       <c r="Y62" s="4">
-        <v>0.38153999999999999</v>
+        <v>0.13045499999999999</v>
       </c>
       <c r="Z62" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="4">
         <v>11</v>
       </c>
       <c r="C63" s="4">
-        <v>17116724</v>
+        <v>29159016</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" s="7">
-        <v>1.1046062078868883</v>
+        <v>1.1588000000000001</v>
       </c>
       <c r="F63" s="4">
-        <v>1.905E-6</v>
+        <v>5.7250000000000002E-6</v>
       </c>
       <c r="G63" s="7">
-        <v>1.0739936912413448</v>
-      </c>
-      <c r="H63" s="9">
-        <v>6.7799257843972303E-3</v>
+        <v>1.0408971437494401</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.22605779289686601</v>
       </c>
       <c r="I63" s="7">
-        <v>1.0940041961227225</v>
+        <v>1.12559322561262</v>
       </c>
       <c r="J63">
-        <v>1.6938579171591601E-2</v>
+        <v>2.77497075454698E-2</v>
       </c>
       <c r="K63" s="10">
-        <v>1.1320745252341199E-7</v>
+        <v>2.01271250757085E-5</v>
       </c>
       <c r="L63" s="14">
-        <v>1.0883</v>
+        <v>1.1269</v>
       </c>
       <c r="M63" s="9">
-        <v>5.784E-8</v>
+        <v>2.5450000000000002E-6</v>
       </c>
       <c r="N63" s="4">
-        <v>1.0569999999999999</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="O63">
-        <v>3.98914E-2</v>
+        <v>6.3136999999999999E-2</v>
       </c>
       <c r="P63" s="4">
-        <v>0.16711100000000001</v>
+        <v>4.6855399999999998E-2</v>
       </c>
       <c r="Q63" s="4">
-        <v>8.3555500000000005E-2</v>
+        <v>2.3427699999999999E-2</v>
       </c>
       <c r="R63" s="4">
-        <v>1.0089999999999999</v>
+        <v>1.093</v>
       </c>
       <c r="S63" s="4">
-        <v>4.0694000000000001E-2</v>
+        <v>6.4390000000000003E-2</v>
       </c>
       <c r="T63" s="4">
-        <v>0.82511999999999996</v>
+        <v>0.16703000000000001</v>
       </c>
       <c r="U63" s="4">
-        <v>0.41255999999999998</v>
+        <v>8.3515000000000006E-2</v>
       </c>
       <c r="V63" s="4">
-        <v>1.0469999999999999</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="W63" s="4">
-        <v>4.0955999999999999E-2</v>
+        <v>6.3934000000000005E-2</v>
       </c>
       <c r="X63" s="4">
-        <v>0.26090999999999998</v>
+        <v>0.57198000000000004</v>
       </c>
       <c r="Y63" s="4">
-        <v>0.13045499999999999</v>
+        <v>0.28599000000000002</v>
       </c>
       <c r="Z63" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" s="4">
         <v>11</v>
       </c>
       <c r="C64" s="4">
-        <v>29159016</v>
+        <v>97630614</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" s="7">
-        <v>1.1588000000000001</v>
+        <v>1.1101243339253997</v>
       </c>
       <c r="F64" s="4">
-        <v>5.7250000000000002E-6</v>
+        <v>1.1039999999999999E-6</v>
       </c>
       <c r="G64" s="7">
-        <v>1.0408971437494401</v>
+        <v>0.99482952659889889</v>
       </c>
       <c r="H64" s="1">
-        <v>0.22605779289686601</v>
+        <v>0.57586713363628095</v>
       </c>
       <c r="I64" s="7">
-        <v>1.12559322561262</v>
+        <v>1.064328252491245</v>
       </c>
       <c r="J64">
-        <v>2.77497075454698E-2</v>
+        <v>1.6793408644697101E-2</v>
       </c>
       <c r="K64" s="10">
-        <v>2.01271250757085E-5</v>
+        <v>2.05303134225288E-4</v>
       </c>
       <c r="L64" s="14">
-        <v>1.1269</v>
+        <v>1.0637000000000001</v>
       </c>
       <c r="M64" s="9">
-        <v>2.5450000000000002E-6</v>
+        <v>7.593E-5</v>
       </c>
       <c r="N64" s="4">
-        <v>1.1339999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="O64">
-        <v>6.3136999999999999E-2</v>
+        <v>4.2460600000000001E-2</v>
       </c>
       <c r="P64" s="4">
-        <v>4.6855399999999998E-2</v>
+        <v>0.1504528</v>
       </c>
       <c r="Q64" s="4">
-        <v>2.3427699999999999E-2</v>
+        <v>7.5226399999999999E-2</v>
       </c>
       <c r="R64" s="4">
-        <v>1.093</v>
+        <v>0.99239999999999995</v>
       </c>
       <c r="S64" s="4">
-        <v>6.4390000000000003E-2</v>
+        <v>4.1207000000000001E-2</v>
       </c>
       <c r="T64" s="4">
-        <v>0.16703000000000001</v>
+        <v>0.85384000000000004</v>
       </c>
       <c r="U64" s="4">
-        <v>8.3515000000000006E-2</v>
+        <v>0.57308000000000003</v>
       </c>
       <c r="V64" s="4">
-        <v>1.0369999999999999</v>
+        <v>1.069</v>
       </c>
       <c r="W64" s="4">
-        <v>6.3934000000000005E-2</v>
+        <v>4.1879E-2</v>
       </c>
       <c r="X64" s="4">
-        <v>0.57198000000000004</v>
+        <v>0.11266</v>
       </c>
       <c r="Y64" s="4">
-        <v>0.28599000000000002</v>
+        <v>5.6329999999999998E-2</v>
       </c>
       <c r="Z64" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="4">
         <v>11</v>
       </c>
       <c r="C65" s="4">
-        <v>97630614</v>
+        <v>124829175</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E65" s="7">
-        <v>1.1101243339253997</v>
+        <v>1.1124000000000001</v>
       </c>
       <c r="F65" s="4">
-        <v>1.1039999999999999E-6</v>
+        <v>2.5660000000000001E-7</v>
       </c>
       <c r="G65" s="7">
-        <v>0.99482952659889889</v>
+        <v>1.0103932499822701</v>
       </c>
       <c r="H65" s="1">
-        <v>0.57586713363628095</v>
+        <v>0.35204162614538098</v>
       </c>
       <c r="I65" s="7">
-        <v>1.064328252491245</v>
+        <v>1.0738848428490599</v>
       </c>
       <c r="J65">
-        <v>1.6793408644697101E-2</v>
+        <v>1.6477446362112201E-2</v>
       </c>
       <c r="K65" s="10">
-        <v>2.05303134225288E-4</v>
+        <v>1.5178562550843801E-5</v>
       </c>
       <c r="L65" s="14">
-        <v>1.0637000000000001</v>
+        <v>1.0718000000000001</v>
       </c>
       <c r="M65" s="9">
-        <v>7.593E-5</v>
+        <v>5.4650000000000002E-6</v>
       </c>
       <c r="N65" s="4">
-        <v>1.06</v>
+        <v>1.0593220000000001</v>
       </c>
       <c r="O65">
-        <v>4.2460600000000001E-2</v>
+        <v>4.0246400000000002E-2</v>
       </c>
       <c r="P65" s="4">
-        <v>0.1504528</v>
+        <v>0.1523447</v>
       </c>
       <c r="Q65" s="4">
-        <v>7.5226399999999999E-2</v>
+        <v>7.617235E-2</v>
       </c>
       <c r="R65" s="4">
-        <v>0.99239999999999995</v>
+        <v>1.006</v>
       </c>
       <c r="S65" s="4">
-        <v>4.1207000000000001E-2</v>
+        <v>4.1050000000000003E-2</v>
       </c>
       <c r="T65" s="4">
-        <v>0.85384000000000004</v>
+        <v>0.89076</v>
       </c>
       <c r="U65" s="4">
-        <v>0.57308000000000003</v>
+        <v>0.44538</v>
       </c>
       <c r="V65" s="4">
-        <v>1.069</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="W65" s="4">
-        <v>4.1879E-2</v>
+        <v>4.1257000000000002E-2</v>
       </c>
       <c r="X65" s="4">
-        <v>0.11266</v>
+        <v>0.21148</v>
       </c>
       <c r="Y65" s="4">
-        <v>5.6329999999999998E-2</v>
+        <v>0.10574</v>
       </c>
       <c r="Z65" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="4">
         <v>11</v>
       </c>
       <c r="C66" s="4">
-        <v>124829175</v>
+        <v>124966919</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E66" s="7">
-        <v>1.1124000000000001</v>
+        <v>1.2017786323759165</v>
       </c>
       <c r="F66" s="4">
-        <v>2.5660000000000001E-7</v>
+        <v>2.9110000000000001E-8</v>
       </c>
       <c r="G66" s="7">
-        <v>1.0103932499822701</v>
+        <v>1.0482942937547475</v>
       </c>
       <c r="H66" s="1">
-        <v>0.35204162614538098</v>
+        <v>6.8318435621523801E-2</v>
       </c>
       <c r="I66" s="7">
-        <v>1.0738848428490599</v>
+        <v>1.1190783349858331</v>
       </c>
       <c r="J66">
-        <v>1.6477446362112201E-2</v>
+        <v>2.2889426067194098E-2</v>
       </c>
       <c r="K66" s="10">
-        <v>1.5178562550843801E-5</v>
+        <v>8.8705234246866393E-7</v>
       </c>
       <c r="L66" s="14">
-        <v>1.0718000000000001</v>
+        <v>1.1076999999999999</v>
       </c>
       <c r="M66" s="9">
-        <v>5.4650000000000002E-6</v>
+        <v>1.917E-6</v>
       </c>
       <c r="N66" s="4">
-        <v>1.0593220000000001</v>
+        <v>1.0271159999999999</v>
       </c>
       <c r="O66">
-        <v>4.0246400000000002E-2</v>
+        <v>6.2350999999999997E-2</v>
       </c>
       <c r="P66" s="4">
-        <v>0.1523447</v>
+        <v>0.66130100000000003</v>
       </c>
       <c r="Q66" s="4">
-        <v>7.617235E-2</v>
+        <v>0.33065050000000001</v>
       </c>
       <c r="R66" s="4">
-        <v>1.006</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="S66" s="4">
-        <v>4.1050000000000003E-2</v>
+        <v>6.2779000000000001E-2</v>
       </c>
       <c r="T66" s="4">
-        <v>0.89076</v>
+        <v>0.96426999999999996</v>
       </c>
       <c r="U66" s="4">
-        <v>0.44538</v>
+        <v>0.48213499999999998</v>
       </c>
       <c r="V66" s="4">
-        <v>1.0529999999999999</v>
+        <v>1.024</v>
       </c>
       <c r="W66" s="4">
-        <v>4.1257000000000002E-2</v>
+        <v>6.2678999999999999E-2</v>
       </c>
       <c r="X66" s="4">
-        <v>0.21148</v>
+        <v>0.70226999999999995</v>
       </c>
       <c r="Y66" s="4">
-        <v>0.10574</v>
+        <v>0.35113499999999997</v>
       </c>
       <c r="Z66" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="4">
         <v>11</v>
       </c>
       <c r="C67" s="4">
-        <v>124966919</v>
+        <v>130335958</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E67" s="7">
-        <v>1.2017786323759165</v>
+        <v>1.0978153474585575</v>
       </c>
       <c r="F67" s="4">
-        <v>2.9110000000000001E-8</v>
+        <v>6.4969999999999998E-6</v>
       </c>
       <c r="G67" s="7">
-        <v>1.0482942937547475</v>
+        <v>1.0584639499877126</v>
       </c>
       <c r="H67" s="1">
-        <v>6.8318435621523801E-2</v>
+        <v>7.9243628478340405E-2</v>
       </c>
       <c r="I67" s="7">
-        <v>1.1190783349858331</v>
+        <v>1.0894787860103567</v>
       </c>
       <c r="J67">
-        <v>2.2889426067194098E-2</v>
+        <v>1.8412262143930099E-2</v>
       </c>
       <c r="K67" s="10">
-        <v>8.8705234246866393E-7</v>
+        <v>3.2480809255552898E-6</v>
       </c>
       <c r="L67" s="14">
-        <v>1.1076999999999999</v>
+        <v>1.0944</v>
       </c>
       <c r="M67" s="9">
-        <v>1.917E-6</v>
+        <v>7.4219999999999999E-8</v>
       </c>
       <c r="N67" s="4">
-        <v>1.0271159999999999</v>
+        <v>1.119</v>
       </c>
       <c r="O67">
-        <v>6.2350999999999997E-2</v>
+        <v>4.0661700000000002E-2</v>
       </c>
       <c r="P67" s="4">
-        <v>0.66130100000000003</v>
+        <v>4.7762999999999998E-3</v>
       </c>
       <c r="Q67" s="4">
-        <v>0.33065050000000001</v>
+        <v>2.3881499999999999E-3</v>
       </c>
       <c r="R67" s="4">
-        <v>1.0029999999999999</v>
+        <v>1.071</v>
       </c>
       <c r="S67" s="4">
-        <v>6.2779000000000001E-2</v>
+        <v>4.0453000000000003E-2</v>
       </c>
       <c r="T67" s="4">
-        <v>0.96426999999999996</v>
+        <v>9.1183E-2</v>
       </c>
       <c r="U67" s="4">
-        <v>0.48213499999999998</v>
+        <v>4.55915E-2</v>
       </c>
       <c r="V67" s="4">
-        <v>1.024</v>
+        <v>1.044</v>
       </c>
       <c r="W67" s="4">
-        <v>6.2678999999999999E-2</v>
+        <v>4.0728E-2</v>
       </c>
       <c r="X67" s="4">
-        <v>0.70226999999999995</v>
+        <v>0.28804000000000002</v>
       </c>
       <c r="Y67" s="4">
-        <v>0.35113499999999997</v>
+        <v>0.14402000000000001</v>
       </c>
       <c r="Z67" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" s="4">
-        <v>130335958</v>
+        <v>2040694</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="7">
-        <v>1.0978153474585575</v>
+        <v>1.1563367252543941</v>
       </c>
       <c r="F68" s="4">
-        <v>6.4969999999999998E-6</v>
+        <v>7.7709999999999994E-7</v>
       </c>
       <c r="G68" s="7">
-        <v>1.0584639499877126</v>
+        <v>0.99270602388421281</v>
       </c>
       <c r="H68" s="1">
-        <v>7.9243628478340405E-2</v>
+        <v>0.61293001242017997</v>
       </c>
       <c r="I68" s="7">
-        <v>1.0894787860103567</v>
+        <v>1.0599435771141632</v>
       </c>
       <c r="J68">
-        <v>1.8412262143930099E-2</v>
+        <v>1.9268282738765699E-2</v>
       </c>
       <c r="K68" s="10">
-        <v>3.2480809255552898E-6</v>
+        <v>2.5167395158922599E-3</v>
       </c>
       <c r="L68" s="14">
-        <v>1.0944</v>
-      </c>
-      <c r="M68" s="9">
-        <v>7.4219999999999999E-8</v>
+        <v>1.0556000000000001</v>
+      </c>
+      <c r="M68" s="14">
+        <v>2.5730000000000002E-3</v>
       </c>
       <c r="N68" s="4">
-        <v>1.119</v>
+        <v>1.0275380000000001</v>
       </c>
       <c r="O68">
-        <v>4.0661700000000002E-2</v>
+        <v>4.9592700000000003E-2</v>
       </c>
       <c r="P68" s="4">
-        <v>4.7762999999999998E-3</v>
+        <v>0.58384409999999998</v>
       </c>
       <c r="Q68" s="4">
-        <v>2.3881499999999999E-3</v>
+        <v>0.29192204999999999</v>
       </c>
       <c r="R68" s="4">
-        <v>1.071</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="S68" s="4">
-        <v>4.0453000000000003E-2</v>
+        <v>5.1076999999999997E-2</v>
       </c>
       <c r="T68" s="4">
-        <v>9.1183E-2</v>
+        <v>4.4144999999999997E-2</v>
       </c>
       <c r="U68" s="4">
-        <v>4.55915E-2</v>
+        <v>2.2072499999999998E-2</v>
       </c>
       <c r="V68" s="4">
-        <v>1.044</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="W68" s="4">
-        <v>4.0728E-2</v>
+        <v>5.1536999999999999E-2</v>
       </c>
       <c r="X68" s="4">
-        <v>0.28804000000000002</v>
+        <v>0.14693000000000001</v>
       </c>
       <c r="Y68" s="4">
-        <v>0.14402000000000001</v>
+        <v>0.926535</v>
       </c>
       <c r="Z68" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="4">
         <v>12</v>
       </c>
       <c r="C69" s="4">
-        <v>2040694</v>
+        <v>2219845</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E69" s="7">
-        <v>1.1563367252543941</v>
+        <v>1.1129</v>
       </c>
       <c r="F69" s="4">
-        <v>7.7709999999999994E-7</v>
+        <v>8.9229999999999991E-7</v>
       </c>
       <c r="G69" s="7">
-        <v>0.99270602388421281</v>
+        <v>1.0416426961619401</v>
       </c>
       <c r="H69" s="1">
-        <v>0.61293001242017997</v>
+        <v>6.9794868459683898E-2</v>
       </c>
       <c r="I69" s="7">
-        <v>1.0599435771141632</v>
+        <v>1.08498545211528</v>
       </c>
       <c r="J69">
-        <v>1.9268282738765699E-2</v>
+        <v>1.7111287800090601E-2</v>
       </c>
       <c r="K69" s="10">
-        <v>2.5167395158922599E-3</v>
+        <v>1.8714824490118099E-6</v>
       </c>
       <c r="L69" s="14">
-        <v>1.0556000000000001</v>
-      </c>
-      <c r="M69" s="14">
-        <v>2.5730000000000002E-3</v>
+        <v>1.0944</v>
+      </c>
+      <c r="M69" s="9">
+        <v>1.229E-8</v>
       </c>
       <c r="N69" s="4">
-        <v>1.0275380000000001</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="O69">
-        <v>4.9592700000000003E-2</v>
+        <v>4.1760600000000002E-2</v>
       </c>
       <c r="P69" s="4">
-        <v>0.58384409999999998</v>
+        <v>7.2309999999999996E-4</v>
       </c>
       <c r="Q69" s="4">
-        <v>0.29192204999999999</v>
+        <v>3.6154999999999998E-4</v>
       </c>
       <c r="R69" s="4">
-        <v>1.1080000000000001</v>
+        <v>1.149</v>
       </c>
       <c r="S69" s="4">
-        <v>5.1076999999999997E-2</v>
+        <v>4.2568000000000002E-2</v>
       </c>
       <c r="T69" s="4">
-        <v>4.4144999999999997E-2</v>
+        <v>1.1215000000000001E-3</v>
       </c>
       <c r="U69" s="4">
-        <v>2.2072499999999998E-2</v>
+        <v>5.6075000000000005E-4</v>
       </c>
       <c r="V69" s="4">
-        <v>0.92800000000000005</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="W69" s="4">
-        <v>5.1536999999999999E-2</v>
+        <v>4.2625999999999997E-2</v>
       </c>
       <c r="X69" s="4">
-        <v>0.14693000000000001</v>
+        <v>0.93772</v>
       </c>
       <c r="Y69" s="4">
-        <v>0.926535</v>
+        <v>0.46886</v>
       </c>
       <c r="Z69" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C70" s="4">
-        <v>2219845</v>
+        <v>34892982</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E70" s="7">
-        <v>1.1129</v>
+        <v>1.1098779134295227</v>
       </c>
       <c r="F70" s="4">
-        <v>8.9229999999999991E-7</v>
+        <v>5.1059999999999993E-7</v>
       </c>
       <c r="G70" s="7">
-        <v>1.0416426961619401</v>
+        <v>1.01856511192534</v>
       </c>
       <c r="H70" s="1">
-        <v>6.9794868459683898E-2</v>
+        <v>0.17493440730726401</v>
       </c>
       <c r="I70" s="7">
-        <v>1.08498545211528</v>
+        <v>1.0607139513305435</v>
       </c>
       <c r="J70">
-        <v>1.7111287800090601E-2</v>
+        <v>1.4294249446346699E-2</v>
       </c>
       <c r="K70" s="10">
-        <v>1.8714824490118099E-6</v>
+        <v>3.73171749727952E-5</v>
       </c>
       <c r="L70" s="14">
-        <v>1.0944</v>
+        <v>1.0576000000000001</v>
       </c>
       <c r="M70" s="9">
-        <v>1.229E-8</v>
+        <v>3.2419999999999998E-5</v>
       </c>
       <c r="N70" s="4">
-        <v>1.1519999999999999</v>
+        <v>1.033058</v>
       </c>
       <c r="O70">
-        <v>4.1760600000000002E-2</v>
+        <v>4.04553E-2</v>
       </c>
       <c r="P70" s="4">
-        <v>7.2309999999999996E-4</v>
+        <v>0.42205429999999999</v>
       </c>
       <c r="Q70" s="4">
-        <v>3.6154999999999998E-4</v>
+        <v>0.21102715</v>
       </c>
       <c r="R70" s="4">
-        <v>1.149</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="S70" s="4">
-        <v>4.2568000000000002E-2</v>
+        <v>4.1300999999999997E-2</v>
       </c>
       <c r="T70" s="4">
-        <v>1.1215000000000001E-3</v>
+        <v>0.84570000000000001</v>
       </c>
       <c r="U70" s="4">
-        <v>5.6075000000000005E-4</v>
+        <v>0.57715000000000005</v>
       </c>
       <c r="V70" s="4">
-        <v>1.0029999999999999</v>
+        <v>1.042</v>
       </c>
       <c r="W70" s="4">
-        <v>4.2625999999999997E-2</v>
+        <v>4.1973000000000003E-2</v>
       </c>
       <c r="X70" s="4">
-        <v>0.93772</v>
+        <v>0.32645999999999997</v>
       </c>
       <c r="Y70" s="4">
-        <v>0.46886</v>
+        <v>0.16322999999999999</v>
       </c>
       <c r="Z70" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="4">
-        <v>34892982</v>
+        <v>38382919</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E71" s="7">
-        <v>1.1098779134295227</v>
+        <v>1.1137097672346585</v>
       </c>
       <c r="F71" s="4">
-        <v>5.1059999999999993E-7</v>
+        <v>3.4899999999999996E-7</v>
       </c>
       <c r="G71" s="7">
-        <v>1.01856511192534</v>
+        <v>1.0327659513270999</v>
       </c>
       <c r="H71" s="1">
-        <v>0.17493440730726401</v>
+        <v>5.34138221984337E-2</v>
       </c>
       <c r="I71" s="7">
-        <v>1.0607139513305435</v>
+        <v>1.0702976755289866</v>
       </c>
       <c r="J71">
-        <v>1.4294249446346699E-2</v>
+        <v>1.45126499891182E-2</v>
       </c>
       <c r="K71" s="10">
-        <v>3.73171749727952E-5</v>
+        <v>2.8518191994564299E-6</v>
       </c>
       <c r="L71" s="14">
-        <v>1.0576000000000001</v>
+        <v>1.0653999999999999</v>
       </c>
       <c r="M71" s="9">
-        <v>3.2419999999999998E-5</v>
+        <v>3.6629999999999999E-6</v>
       </c>
       <c r="N71" s="4">
-        <v>1.033058</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="O71">
-        <v>4.04553E-2</v>
+        <v>4.0925200000000002E-2</v>
       </c>
       <c r="P71" s="4">
-        <v>0.42205429999999999</v>
+        <v>0.52069149999999997</v>
       </c>
       <c r="Q71" s="4">
-        <v>0.21102715</v>
+        <v>0.26034574999999999</v>
       </c>
       <c r="R71" s="4">
-        <v>0.99199999999999999</v>
+        <v>1.018</v>
       </c>
       <c r="S71" s="4">
-        <v>4.1300999999999997E-2</v>
+        <v>4.1605000000000003E-2</v>
       </c>
       <c r="T71" s="4">
-        <v>0.84570000000000001</v>
+        <v>0.67618999999999996</v>
       </c>
       <c r="U71" s="4">
-        <v>0.57715000000000005</v>
+        <v>0.33809499999999998</v>
       </c>
       <c r="V71" s="4">
-        <v>1.042</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="W71" s="4">
-        <v>4.1973000000000003E-2</v>
+        <v>4.1411999999999997E-2</v>
       </c>
       <c r="X71" s="4">
-        <v>0.32645999999999997</v>
+        <v>0.83477999999999997</v>
       </c>
       <c r="Y71" s="4">
-        <v>0.16322999999999999</v>
+        <v>0.41738999999999998</v>
       </c>
       <c r="Z71" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" s="4">
         <v>15</v>
       </c>
       <c r="C72" s="4">
-        <v>38382919</v>
+        <v>59627395</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E72" s="7">
-        <v>1.1137097672346585</v>
+        <v>1.1012999999999999</v>
       </c>
       <c r="F72" s="4">
-        <v>3.4899999999999996E-7</v>
+        <v>4.0049999999999998E-6</v>
       </c>
       <c r="G72" s="7">
-        <v>1.0327659513270999</v>
-      </c>
-      <c r="H72" s="1">
-        <v>5.34138221984337E-2</v>
+        <v>1.04737869680925</v>
+      </c>
+      <c r="H72" s="9">
+        <v>3.95713431466976E-2</v>
       </c>
       <c r="I72" s="7">
-        <v>1.0702976755289866</v>
+        <v>1.0801715037611299</v>
       </c>
       <c r="J72">
-        <v>1.45126499891182E-2</v>
+        <v>1.6378450966580999E-2</v>
       </c>
       <c r="K72" s="10">
-        <v>2.8518191994564299E-6</v>
+        <v>2.4940501257564299E-6</v>
       </c>
       <c r="L72" s="14">
-        <v>1.0653999999999999</v>
+        <v>1.0754999999999999</v>
       </c>
       <c r="M72" s="9">
-        <v>3.6629999999999999E-6</v>
+        <v>1.5689999999999999E-6</v>
       </c>
       <c r="N72" s="4">
-        <v>1.0269999999999999</v>
+        <v>1.048108</v>
       </c>
       <c r="O72">
-        <v>4.0925200000000002E-2</v>
+        <v>4.0058499999999997E-2</v>
       </c>
       <c r="P72" s="4">
-        <v>0.52069149999999997</v>
+        <v>0.24049119999999999</v>
       </c>
       <c r="Q72" s="4">
-        <v>0.26034574999999999</v>
+        <v>0.12024559999999999</v>
       </c>
       <c r="R72" s="4">
-        <v>1.018</v>
+        <v>1</v>
       </c>
       <c r="S72" s="4">
-        <v>4.1605000000000003E-2</v>
+        <v>4.0829999999999998E-2</v>
       </c>
       <c r="T72" s="4">
-        <v>0.67618999999999996</v>
+        <v>0.99131000000000002</v>
       </c>
       <c r="U72" s="4">
-        <v>0.33809499999999998</v>
+        <v>0.50434500000000004</v>
       </c>
       <c r="V72" s="4">
-        <v>1.0089999999999999</v>
+        <v>1.048</v>
       </c>
       <c r="W72" s="4">
-        <v>4.1411999999999997E-2</v>
+        <v>4.1153000000000002E-2</v>
       </c>
       <c r="X72" s="4">
-        <v>0.83477999999999997</v>
+        <v>0.25868000000000002</v>
       </c>
       <c r="Y72" s="4">
-        <v>0.41738999999999998</v>
+        <v>0.12934000000000001</v>
       </c>
       <c r="Z72" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" s="4">
         <v>15</v>
       </c>
       <c r="C73" s="4">
-        <v>59627395</v>
+        <v>86269935</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E73" s="7">
-        <v>1.1012999999999999</v>
+        <v>1.1373976342129208</v>
       </c>
       <c r="F73" s="4">
-        <v>4.0049999999999998E-6</v>
+        <v>5.1440000000000002E-6</v>
       </c>
       <c r="G73" s="7">
-        <v>1.04737869680925</v>
-      </c>
-      <c r="H73" s="9">
-        <v>3.95713431466976E-2</v>
+        <v>0.97197572061452431</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.7281783497448</v>
       </c>
       <c r="I73" s="7">
-        <v>1.0801715037611299</v>
+        <v>1.0907691774763439</v>
       </c>
       <c r="J73">
-        <v>1.6378450966580999E-2</v>
+        <v>2.4154434720606101E-2</v>
       </c>
       <c r="K73" s="10">
-        <v>2.4940501257564299E-6</v>
+        <v>3.2192829975796798E-4</v>
       </c>
       <c r="L73" s="14">
-        <v>1.0754999999999999</v>
-      </c>
-      <c r="M73" s="9">
-        <v>1.5689999999999999E-6</v>
+        <v>1.0670999999999999</v>
+      </c>
+      <c r="M73" s="14">
+        <v>3.3029999999999999E-3</v>
       </c>
       <c r="N73" s="4">
-        <v>1.048108</v>
+        <v>0.9536</v>
       </c>
       <c r="O73">
-        <v>4.0058499999999997E-2</v>
+        <v>5.4626099999999997E-2</v>
       </c>
       <c r="P73" s="4">
-        <v>0.24049119999999999</v>
+        <v>0.38409929999999998</v>
       </c>
       <c r="Q73" s="4">
-        <v>0.12024559999999999</v>
+        <v>0.80795035000000004</v>
       </c>
       <c r="R73" s="4">
-        <v>1</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="S73" s="4">
-        <v>4.0829999999999998E-2</v>
+        <v>5.4625E-2</v>
       </c>
       <c r="T73" s="4">
-        <v>0.99131000000000002</v>
+        <v>0.85929</v>
       </c>
       <c r="U73" s="4">
-        <v>0.50434500000000004</v>
+        <v>0.57035499999999995</v>
       </c>
       <c r="V73" s="4">
-        <v>1.048</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="W73" s="4">
-        <v>4.1153000000000002E-2</v>
+        <v>5.5655999999999997E-2</v>
       </c>
       <c r="X73" s="4">
-        <v>0.25868000000000002</v>
+        <v>0.50744</v>
       </c>
       <c r="Y73" s="4">
-        <v>0.12934000000000001</v>
+        <v>0.74628000000000005</v>
       </c>
       <c r="Z73" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C74" s="4">
-        <v>86269935</v>
+        <v>49657366</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="7">
-        <v>1.1373976342129208</v>
+        <v>1.1069293779056897</v>
       </c>
       <c r="F74" s="4">
-        <v>5.1440000000000002E-6</v>
+        <v>8.1629999999999996E-6</v>
       </c>
       <c r="G74" s="7">
-        <v>0.97197572061452431</v>
+        <v>0.97377403303106636</v>
       </c>
       <c r="H74" s="1">
-        <v>0.7281783497448</v>
+        <v>0.73836481160394796</v>
       </c>
       <c r="I74" s="7">
-        <v>1.0907691774763439</v>
+        <v>1.0746786944001316</v>
       </c>
       <c r="J74">
-        <v>2.4154434720606101E-2</v>
+        <v>1.99977958493593E-2</v>
       </c>
       <c r="K74" s="10">
-        <v>3.2192829975796798E-4</v>
+        <v>3.16406739490516E-4</v>
       </c>
       <c r="L74" s="14">
-        <v>1.0670999999999999</v>
+        <v>1.0626</v>
       </c>
       <c r="M74" s="14">
-        <v>3.3029999999999999E-3</v>
+        <v>8.4960000000000005E-4</v>
       </c>
       <c r="N74" s="4">
-        <v>0.9536</v>
+        <v>1.0062390000000001</v>
       </c>
       <c r="O74">
-        <v>5.4626099999999997E-2</v>
+        <v>4.3890999999999999E-2</v>
       </c>
       <c r="P74" s="4">
-        <v>0.38409929999999998</v>
+        <v>0.88792729999999997</v>
       </c>
       <c r="Q74" s="4">
-        <v>0.80795035000000004</v>
+        <v>0.44396364999999999</v>
       </c>
       <c r="R74" s="4">
-        <v>0.99039999999999995</v>
+        <v>1.038</v>
       </c>
       <c r="S74" s="4">
-        <v>5.4625E-2</v>
+        <v>4.4650000000000002E-2</v>
       </c>
       <c r="T74" s="4">
-        <v>0.85929</v>
+        <v>0.39765</v>
       </c>
       <c r="U74" s="4">
-        <v>0.57035499999999995</v>
+        <v>0.198825</v>
       </c>
       <c r="V74" s="4">
-        <v>0.96379999999999999</v>
+        <v>0.96840000000000004</v>
       </c>
       <c r="W74" s="4">
-        <v>5.5655999999999997E-2</v>
+        <v>4.5510000000000002E-2</v>
       </c>
       <c r="X74" s="4">
-        <v>0.50744</v>
+        <v>0.48114000000000001</v>
       </c>
       <c r="Y74" s="4">
-        <v>0.74628000000000005</v>
+        <v>0.75943000000000005</v>
       </c>
       <c r="Z74" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" s="4">
         <v>18</v>
       </c>
       <c r="C75" s="4">
-        <v>49657366</v>
+        <v>50903015</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E75" s="7">
-        <v>1.1069293779056897</v>
+        <v>1.1081560283687943</v>
       </c>
       <c r="F75" s="4">
-        <v>8.1629999999999996E-6</v>
+        <v>1.003E-6</v>
       </c>
       <c r="G75" s="7">
-        <v>0.97377403303106636</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0.73836481160394796</v>
+        <v>1.0840590085056852</v>
+      </c>
+      <c r="H75" s="9">
+        <v>2.2870048463463602E-5</v>
       </c>
       <c r="I75" s="7">
-        <v>1.0746786944001316</v>
+        <v>1.0953333867825097</v>
       </c>
       <c r="J75">
-        <v>1.99977958493593E-2</v>
+        <v>1.44062510771998E-2</v>
       </c>
       <c r="K75" s="10">
-        <v>3.16406739490516E-4</v>
+        <v>2.60242050131865E-10</v>
       </c>
       <c r="L75" s="14">
-        <v>1.0626</v>
-      </c>
-      <c r="M75" s="14">
-        <v>8.4960000000000005E-4</v>
+        <v>1.0956999999999999</v>
+      </c>
+      <c r="M75" s="9">
+        <v>1.7370000000000001E-11</v>
       </c>
       <c r="N75" s="4">
-        <v>1.0062390000000001</v>
+        <v>1.0987800000000001</v>
       </c>
       <c r="O75">
-        <v>4.3890999999999999E-2</v>
+        <v>4.0914800000000001E-2</v>
       </c>
       <c r="P75" s="4">
-        <v>0.88792729999999997</v>
+        <v>2.1298600000000001E-2</v>
       </c>
       <c r="Q75" s="4">
-        <v>0.44396364999999999</v>
+        <v>1.06493E-2</v>
       </c>
       <c r="R75" s="4">
-        <v>1.038</v>
+        <v>1.03</v>
       </c>
       <c r="S75" s="4">
-        <v>4.4650000000000002E-2</v>
+        <v>4.1196000000000003E-2</v>
       </c>
       <c r="T75" s="4">
-        <v>0.39765</v>
+        <v>0.46771000000000001</v>
       </c>
       <c r="U75" s="4">
-        <v>0.198825</v>
+        <v>0.23385500000000001</v>
       </c>
       <c r="V75" s="4">
-        <v>0.96840000000000004</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="W75" s="4">
-        <v>4.5510000000000002E-2</v>
+        <v>4.1785999999999997E-2</v>
       </c>
       <c r="X75" s="4">
-        <v>0.48114000000000001</v>
+        <v>0.13163</v>
       </c>
       <c r="Y75" s="4">
-        <v>0.75943000000000005</v>
+        <v>6.5814999999999999E-2</v>
       </c>
       <c r="Z75" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" s="4">
         <v>18</v>
       </c>
       <c r="C76" s="4">
-        <v>50903015</v>
+        <v>51345959</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E76" s="7">
-        <v>1.1081560283687943</v>
+        <v>1.4064697609001406</v>
       </c>
       <c r="F76" s="4">
-        <v>1.003E-6</v>
+        <v>2.3499999999999999E-8</v>
       </c>
       <c r="G76" s="7">
-        <v>1.0840590085056852</v>
-      </c>
-      <c r="H76" s="9">
-        <v>2.2870048463463602E-5</v>
+        <v>1.0852842062068913</v>
+      </c>
+      <c r="H76" s="1">
+        <v>8.5070572290800298E-2</v>
       </c>
       <c r="I76" s="7">
-        <v>1.0953333867825097</v>
+        <v>1.2316770102214818</v>
       </c>
       <c r="J76">
-        <v>1.44062510771998E-2</v>
+        <v>4.2686873134501799E-2</v>
       </c>
       <c r="K76" s="10">
-        <v>2.60242050131865E-10</v>
+        <v>1.05273260886385E-6</v>
       </c>
       <c r="L76" s="14">
-        <v>1.0956999999999999</v>
+        <v>1.2405999999999999</v>
       </c>
       <c r="M76" s="9">
-        <v>1.7370000000000001E-11</v>
+        <v>8.8889999999999997E-8</v>
       </c>
       <c r="N76" s="4">
-        <v>1.0987800000000001</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="O76">
-        <v>4.0914800000000001E-2</v>
+        <v>0.12238930000000001</v>
       </c>
       <c r="P76" s="4">
-        <v>2.1298600000000001E-2</v>
+        <v>2.47951E-2</v>
       </c>
       <c r="Q76" s="4">
-        <v>1.06493E-2</v>
+        <v>1.239755E-2</v>
       </c>
       <c r="R76" s="4">
-        <v>1.03</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="S76" s="4">
-        <v>4.1196000000000003E-2</v>
+        <v>0.12424</v>
       </c>
       <c r="T76" s="4">
-        <v>0.46771000000000001</v>
+        <v>3.0196000000000001E-2</v>
       </c>
       <c r="U76" s="4">
-        <v>0.23385500000000001</v>
+        <v>1.5098E-2</v>
       </c>
       <c r="V76" s="4">
-        <v>1.0649999999999999</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="W76" s="4">
-        <v>4.1785999999999997E-2</v>
+        <v>0.11785</v>
       </c>
       <c r="X76" s="4">
-        <v>0.13163</v>
+        <v>0.96645000000000003</v>
       </c>
       <c r="Y76" s="4">
-        <v>6.5814999999999999E-2</v>
+        <v>0.48322500000000002</v>
       </c>
       <c r="Z76" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C77" s="4">
-        <v>51345959</v>
+        <v>946943</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E77" s="7">
-        <v>1.4064697609001406</v>
+        <v>1.1421000000000001</v>
       </c>
       <c r="F77" s="4">
-        <v>2.3499999999999999E-8</v>
+        <v>2.9840000000000002E-5</v>
       </c>
       <c r="G77" s="7">
-        <v>1.0852842062068913</v>
+        <v>0.98306873488236002</v>
       </c>
       <c r="H77" s="1">
-        <v>8.5070572290800298E-2</v>
+        <v>0.75959580992691</v>
       </c>
       <c r="I77" s="7">
-        <v>1.2316770102214818</v>
+        <v>1.0387067984849201</v>
       </c>
       <c r="J77">
-        <v>4.2686873134501799E-2</v>
+        <v>1.9268620454634899E-2</v>
       </c>
       <c r="K77" s="10">
-        <v>1.05273260886385E-6</v>
+        <v>4.87355979817286E-2</v>
       </c>
       <c r="L77" s="14">
-        <v>1.2405999999999999</v>
-      </c>
-      <c r="M77" s="9">
-        <v>8.8889999999999997E-8</v>
+        <v>1.0190999999999999</v>
+      </c>
+      <c r="M77" s="14">
+        <v>0.28120000000000001</v>
       </c>
       <c r="N77" s="4">
-        <v>1.3160000000000001</v>
+        <v>0.92850509999999997</v>
       </c>
       <c r="O77">
-        <v>0.12238930000000001</v>
+        <v>4.2585600000000001E-2</v>
       </c>
       <c r="P77" s="4">
-        <v>2.47951E-2</v>
+        <v>8.16167E-2</v>
       </c>
       <c r="Q77" s="4">
-        <v>1.239755E-2</v>
+        <v>0.95919164999999995</v>
       </c>
       <c r="R77" s="4">
-        <v>1.3089999999999999</v>
+        <v>0.89859999999999995</v>
       </c>
       <c r="S77" s="4">
-        <v>0.12424</v>
+        <v>4.3164000000000001E-2</v>
       </c>
       <c r="T77" s="4">
-        <v>3.0196000000000001E-2</v>
+        <v>1.3217E-2</v>
       </c>
       <c r="U77" s="4">
-        <v>1.5098E-2</v>
+        <v>0.99339149999999998</v>
       </c>
       <c r="V77" s="4">
-        <v>1.0049999999999999</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="W77" s="4">
-        <v>0.11785</v>
+        <v>4.3311000000000002E-2</v>
       </c>
       <c r="X77" s="4">
-        <v>0.96645000000000003</v>
+        <v>0.44957000000000003</v>
       </c>
       <c r="Y77" s="4">
-        <v>0.48322500000000002</v>
+        <v>0.22478500000000001</v>
       </c>
       <c r="Z77" s="15" t="s">
         <v>104</v>
@@ -6902,451 +6917,374 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="4">
         <v>19</v>
       </c>
       <c r="C78" s="4">
-        <v>946943</v>
+        <v>37323114</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E78" s="7">
-        <v>1.1421000000000001</v>
+        <v>1.1043622308117063</v>
       </c>
       <c r="F78" s="4">
-        <v>2.9840000000000002E-5</v>
+        <v>1.789E-5</v>
       </c>
       <c r="G78" s="7">
-        <v>0.98306873488236002</v>
+        <v>1.0356134728583843</v>
       </c>
       <c r="H78" s="1">
-        <v>0.75959580992691</v>
+        <v>0.19149204229620101</v>
       </c>
       <c r="I78" s="7">
-        <v>1.0387067984849201</v>
+        <v>1.0868248220938477</v>
       </c>
       <c r="J78">
-        <v>1.9268620454634899E-2</v>
+        <v>2.00178282436007E-2</v>
       </c>
       <c r="K78" s="10">
-        <v>4.87355979817286E-2</v>
+        <v>3.1920450865197098E-5</v>
       </c>
       <c r="L78" s="14">
-        <v>1.0190999999999999</v>
-      </c>
-      <c r="M78" s="14">
-        <v>0.28120000000000001</v>
+        <v>1.0871999999999999</v>
+      </c>
+      <c r="M78" s="9">
+        <v>4.3660000000000002E-6</v>
       </c>
       <c r="N78" s="4">
-        <v>0.92850509999999997</v>
+        <v>1.089</v>
       </c>
       <c r="O78">
-        <v>4.2585600000000001E-2</v>
+        <v>4.37448E-2</v>
       </c>
       <c r="P78" s="4">
-        <v>8.16167E-2</v>
+        <v>5.1874000000000003E-2</v>
       </c>
       <c r="Q78" s="4">
-        <v>0.95919164999999995</v>
+        <v>2.5937000000000002E-2</v>
       </c>
       <c r="R78" s="4">
-        <v>0.89859999999999995</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="S78" s="4">
-        <v>4.3164000000000001E-2</v>
+        <v>4.4241999999999997E-2</v>
       </c>
       <c r="T78" s="4">
-        <v>1.3217E-2</v>
+        <v>0.31935999999999998</v>
       </c>
       <c r="U78" s="4">
-        <v>0.99339149999999998</v>
+        <v>0.15967999999999999</v>
       </c>
       <c r="V78" s="4">
-        <v>1.0329999999999999</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="W78" s="4">
-        <v>4.3311000000000002E-2</v>
+        <v>4.4908000000000003E-2</v>
       </c>
       <c r="X78" s="4">
-        <v>0.44957000000000003</v>
+        <v>0.36793999999999999</v>
       </c>
       <c r="Y78" s="4">
-        <v>0.22478500000000001</v>
+        <v>0.18396999999999999</v>
       </c>
       <c r="Z78" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C79" s="4">
-        <v>37323114</v>
+        <v>26430592</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E79" s="7">
-        <v>1.1043622308117063</v>
+        <v>1.2086000000000001</v>
       </c>
       <c r="F79" s="4">
-        <v>1.789E-5</v>
+        <v>9.5599999999999999E-6</v>
       </c>
       <c r="G79" s="7">
-        <v>1.0356134728583843</v>
+        <v>1.0182600495194201</v>
       </c>
       <c r="H79" s="1">
-        <v>0.19149204229620101</v>
+        <v>0.40149849871870102</v>
       </c>
       <c r="I79" s="7">
-        <v>1.0868248220938477</v>
+        <v>1.1562781535653099</v>
       </c>
       <c r="J79">
-        <v>2.00178282436007E-2</v>
+        <v>3.68613605624823E-2</v>
       </c>
       <c r="K79" s="10">
-        <v>3.1920450865197098E-5</v>
+        <v>8.1734469498107005E-5</v>
       </c>
       <c r="L79" s="14">
-        <v>1.0871999999999999</v>
-      </c>
-      <c r="M79" s="9">
-        <v>4.3660000000000002E-6</v>
+        <v>1.1291</v>
+      </c>
+      <c r="M79" s="14">
+        <v>3.0009999999999998E-4</v>
       </c>
       <c r="N79" s="4">
-        <v>1.089</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="O79">
-        <v>4.37448E-2</v>
+        <v>8.16085E-2</v>
       </c>
       <c r="P79" s="4">
-        <v>5.1874000000000003E-2</v>
+        <v>0.94771159999999999</v>
       </c>
       <c r="Q79" s="4">
-        <v>2.5937000000000002E-2</v>
+        <v>0.47385579999999999</v>
       </c>
       <c r="R79" s="4">
-        <v>1.0449999999999999</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="S79" s="4">
-        <v>4.4241999999999997E-2</v>
+        <v>7.8383999999999995E-2</v>
       </c>
       <c r="T79" s="4">
-        <v>0.31935999999999998</v>
+        <v>0.29021999999999998</v>
       </c>
       <c r="U79" s="4">
-        <v>0.15967999999999999</v>
+        <v>0.14510999999999999</v>
       </c>
       <c r="V79" s="4">
-        <v>1.0409999999999999</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="W79" s="4">
-        <v>4.4908000000000003E-2</v>
+        <v>8.0211000000000005E-2</v>
       </c>
       <c r="X79" s="4">
-        <v>0.36793999999999999</v>
+        <v>0.32106000000000001</v>
       </c>
       <c r="Y79" s="4">
-        <v>0.18396999999999999</v>
+        <v>0.83946999999999994</v>
       </c>
       <c r="Z79" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" s="4">
         <v>21</v>
       </c>
       <c r="C80" s="4">
-        <v>26430592</v>
+        <v>32855134</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E80" s="7">
-        <v>1.2086000000000001</v>
+        <v>1.1341000000000001</v>
       </c>
       <c r="F80" s="4">
-        <v>9.5599999999999999E-6</v>
+        <v>4.0840000000000002E-6</v>
       </c>
       <c r="G80" s="7">
-        <v>1.0182600495194201</v>
+        <v>1.0062334645681199</v>
       </c>
       <c r="H80" s="1">
-        <v>0.40149849871870102</v>
+        <v>0.451095192670115</v>
       </c>
       <c r="I80" s="7">
-        <v>1.1562781535653099</v>
+        <v>1.10388901873435</v>
       </c>
       <c r="J80">
-        <v>3.68613605624823E-2</v>
+        <v>2.4022378066904101E-2</v>
       </c>
       <c r="K80" s="10">
-        <v>8.1734469498107005E-5</v>
+        <v>3.8806565227700305E-5</v>
       </c>
       <c r="L80" s="14">
-        <v>1.1291</v>
+        <v>1.08</v>
       </c>
       <c r="M80" s="14">
-        <v>3.0009999999999998E-4</v>
+        <v>4.5399999999999998E-4</v>
       </c>
       <c r="N80" s="4">
-        <v>1.0049999999999999</v>
+        <v>0.96711800000000003</v>
       </c>
       <c r="O80">
-        <v>8.16085E-2</v>
+        <v>5.39474E-2</v>
       </c>
       <c r="P80" s="4">
-        <v>0.94771159999999999</v>
+        <v>0.53005380000000002</v>
       </c>
       <c r="Q80" s="4">
-        <v>0.47385579999999999</v>
+        <v>0.73497309999999993</v>
       </c>
       <c r="R80" s="4">
-        <v>1.0860000000000001</v>
+        <v>0.96109999999999995</v>
       </c>
       <c r="S80" s="4">
-        <v>7.8383999999999995E-2</v>
+        <v>5.4918000000000002E-2</v>
       </c>
       <c r="T80" s="4">
-        <v>0.29021999999999998</v>
+        <v>0.46987000000000001</v>
       </c>
       <c r="U80" s="4">
-        <v>0.14510999999999999</v>
+        <v>0.765065</v>
       </c>
       <c r="V80" s="4">
-        <v>0.92349999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="W80" s="4">
-        <v>8.0211000000000005E-2</v>
+        <v>5.5376000000000002E-2</v>
       </c>
       <c r="X80" s="4">
-        <v>0.32106000000000001</v>
+        <v>0.91862999999999995</v>
       </c>
       <c r="Y80" s="4">
-        <v>0.83946999999999994</v>
+        <v>0.45931499999999997</v>
       </c>
       <c r="Z80" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C81" s="4">
-        <v>32855134</v>
+        <v>18290716</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E81" s="7">
-        <v>1.1341000000000001</v>
+        <v>1.1983223487118035</v>
       </c>
       <c r="F81" s="4">
-        <v>4.0840000000000002E-6</v>
+        <v>9.6670000000000008E-6</v>
       </c>
       <c r="G81" s="7">
-        <v>1.0062334645681199</v>
+        <v>1.0238653681610872</v>
       </c>
       <c r="H81" s="1">
-        <v>0.451095192670115</v>
+        <v>0.36670194029012598</v>
       </c>
       <c r="I81" s="7">
-        <v>1.10388901873435</v>
+        <v>1.1505370572359508</v>
       </c>
       <c r="J81">
-        <v>2.4022378066904101E-2</v>
+        <v>3.52158373597702E-2</v>
       </c>
       <c r="K81" s="10">
-        <v>3.8806565227700305E-5</v>
-      </c>
-      <c r="L81" s="14">
-        <v>1.08</v>
-      </c>
-      <c r="M81" s="14">
-        <v>4.5399999999999998E-4</v>
-      </c>
-      <c r="N81" s="4">
-        <v>0.96711800000000003</v>
-      </c>
-      <c r="O81">
-        <v>5.39474E-2</v>
-      </c>
-      <c r="P81" s="4">
-        <v>0.53005380000000002</v>
-      </c>
-      <c r="Q81" s="4">
-        <v>0.73497309999999993</v>
-      </c>
-      <c r="R81" s="4">
-        <v>0.96109999999999995</v>
-      </c>
-      <c r="S81" s="4">
-        <v>5.4918000000000002E-2</v>
-      </c>
-      <c r="T81" s="4">
-        <v>0.46987000000000001</v>
-      </c>
-      <c r="U81" s="4">
-        <v>0.765065</v>
-      </c>
-      <c r="V81" s="4">
-        <v>1.006</v>
-      </c>
-      <c r="W81" s="4">
-        <v>5.5376000000000002E-2</v>
-      </c>
-      <c r="X81" s="4">
-        <v>0.91862999999999995</v>
-      </c>
-      <c r="Y81" s="4">
-        <v>0.45931499999999997</v>
+        <v>6.8342881831107095E-5</v>
+      </c>
+      <c r="O81"/>
+      <c r="Q81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y81" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="Z81" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" s="4">
         <v>22</v>
       </c>
       <c r="C82" s="4">
-        <v>18290716</v>
+        <v>39791811</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E82" s="7">
-        <v>1.1983223487118035</v>
+        <v>1.0984</v>
       </c>
       <c r="F82" s="4">
-        <v>9.6670000000000008E-6</v>
+        <v>8.3869999999999995E-6</v>
       </c>
       <c r="G82" s="7">
-        <v>1.0238653681610872</v>
+        <v>1.00295869427076</v>
       </c>
       <c r="H82" s="1">
-        <v>0.36670194029012598</v>
+        <v>0.47017758581390701</v>
       </c>
       <c r="I82" s="7">
-        <v>1.1505370572359508</v>
+        <v>1.0764429622339799</v>
       </c>
       <c r="J82">
-        <v>3.52158373597702E-2</v>
+        <v>1.8609442073395099E-2</v>
       </c>
       <c r="K82" s="10">
-        <v>6.8342881831107095E-5</v>
-      </c>
-      <c r="O82"/>
-      <c r="Q82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y82" s="4" t="s">
-        <v>22</v>
+        <v>7.548006075230869E-5</v>
+      </c>
+      <c r="L82" s="14">
+        <v>1.0716000000000001</v>
+      </c>
+      <c r="M82" s="9">
+        <v>4.0210000000000003E-5</v>
+      </c>
+      <c r="N82" s="4">
+        <v>1.049979</v>
+      </c>
+      <c r="O82">
+        <v>3.9599000000000002E-2</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0.217999</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>0.1089995</v>
+      </c>
+      <c r="R82" s="4">
+        <v>1.026</v>
+      </c>
+      <c r="S82" s="4">
+        <v>4.0002999999999997E-2</v>
+      </c>
+      <c r="T82" s="4">
+        <v>0.52875000000000005</v>
+      </c>
+      <c r="U82" s="4">
+        <v>0.26437500000000003</v>
+      </c>
+      <c r="V82" s="4">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="W82" s="4">
+        <v>4.0530999999999998E-2</v>
+      </c>
+      <c r="X82" s="4">
+        <v>0.56935000000000002</v>
+      </c>
+      <c r="Y82" s="4">
+        <v>0.28467500000000001</v>
       </c>
       <c r="Z82" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="4">
-        <v>22</v>
-      </c>
-      <c r="C83" s="4">
-        <v>39791811</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="7">
-        <v>1.0984</v>
-      </c>
-      <c r="F83" s="4">
-        <v>8.3869999999999995E-6</v>
-      </c>
-      <c r="G83" s="7">
-        <v>1.00295869427076</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0.47017758581390701</v>
-      </c>
-      <c r="I83" s="7">
-        <v>1.0764429622339799</v>
-      </c>
-      <c r="J83">
-        <v>1.8609442073395099E-2</v>
-      </c>
-      <c r="K83" s="10">
-        <v>7.548006075230869E-5</v>
-      </c>
-      <c r="L83" s="14">
-        <v>1.0716000000000001</v>
-      </c>
-      <c r="M83" s="9">
-        <v>4.0210000000000003E-5</v>
-      </c>
-      <c r="N83" s="4">
-        <v>1.049979</v>
-      </c>
-      <c r="O83">
-        <v>3.9599000000000002E-2</v>
-      </c>
-      <c r="P83" s="4">
-        <v>0.217999</v>
-      </c>
-      <c r="Q83" s="4">
-        <v>0.1089995</v>
-      </c>
-      <c r="R83" s="4">
-        <v>1.026</v>
-      </c>
-      <c r="S83" s="4">
-        <v>4.0002999999999997E-2</v>
-      </c>
-      <c r="T83" s="4">
-        <v>0.52875000000000005</v>
-      </c>
-      <c r="U83" s="4">
-        <v>0.26437500000000003</v>
-      </c>
-      <c r="V83" s="4">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="W83" s="4">
-        <v>4.0530999999999998E-2</v>
-      </c>
-      <c r="X83" s="4">
-        <v>0.56935000000000002</v>
-      </c>
-      <c r="Y83" s="4">
-        <v>0.28467500000000001</v>
-      </c>
-      <c r="Z83" s="15" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J88" s="11"/>
@@ -7372,11 +7310,8 @@
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J96" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:Z83"/>
+  <autoFilter ref="A2:Z82" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="N1:Q1"/>
@@ -7392,7 +7327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7404,7 +7339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
